--- a/Data/Lab-linked/Pacov/Quantification_MassBalance.xlsx
+++ b/Data/Lab-linked/Pacov/Quantification_MassBalance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/Pacov/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="980" windowWidth="27600" windowHeight="13720" tabRatio="892" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="975" windowWidth="27600" windowHeight="13725" tabRatio="892" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Water" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,11 @@
     <sheet name="Filter" sheetId="4" r:id="rId4"/>
     <sheet name="FieldConcentrations" sheetId="9" r:id="rId5"/>
     <sheet name="ConcSpatial" sheetId="11" r:id="rId6"/>
-    <sheet name="DataPublication" sheetId="12" r:id="rId7"/>
-    <sheet name="MassAll" sheetId="10" r:id="rId8"/>
-    <sheet name="App1" sheetId="14" r:id="rId9"/>
+    <sheet name="MassAll_old" sheetId="10" r:id="rId7"/>
+    <sheet name="App1" sheetId="14" r:id="rId8"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -37,21 +32,17 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'App1'!$A$19:$AU$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'App1'!$A$19:$AU$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Filter!$B$5:$B$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MassAll!$A$19:$BB$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">MassAll_old!$A$19:$BB$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soil_Composite!$10:$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Soil_Detailed!$A$7:$XFB$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Water!$A$7:$V$49</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -240,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="830">
   <si>
     <t>Filename</t>
   </si>
@@ -2607,9 +2598,6 @@
     <t>Tot</t>
   </si>
   <si>
-    <t>Matthis</t>
-  </si>
-  <si>
     <t>[ug/g soil]</t>
   </si>
   <si>
@@ -2644,9 +2632,6 @@
   </si>
   <si>
     <t>Technical Sheet Recommendations</t>
-  </si>
-  <si>
-    <t>Farmer practice (beyond recommendations)</t>
   </si>
   <si>
     <t>Depth =</t>
@@ -5054,13 +5039,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="101">
     <dxf>
@@ -6020,7 +6005,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6190,142 +6175,142 @@
             <c:numRef>
               <c:f>Water!$Q$8:$Q$52</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0\.000</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>0.245659364836491</c:v>
+                  <c:v>0.24565936483649065</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.78824632218035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.56099819718288</c:v>
+                  <c:v>6.5609981971828795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.444301877134924</c:v>
+                  <c:v>9.4443018771349241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.042188295162282</c:v>
+                  <c:v>1.0421882951622816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.835735800201355</c:v>
+                  <c:v>8.8357358002013555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.73573241392753</c:v>
+                  <c:v>10.735732413927535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.871835607991827</c:v>
+                  <c:v>0.87183560799182735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.501218995689192</c:v>
+                  <c:v>0.50121899568919159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.586989839129267</c:v>
+                  <c:v>3.5869898391292669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.813034214374671</c:v>
+                  <c:v>0.81303421437467072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.143494567856232</c:v>
+                  <c:v>0.14349456785623207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0410908584127289</c:v>
+                  <c:v>4.109085841272888E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.922689084503435</c:v>
+                  <c:v>8.9226890845034355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.19227564794336</c:v>
+                  <c:v>10.192275647943363</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0219341165039315</c:v>
+                  <c:v>2.1934116503931549E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.188811425738032</c:v>
+                  <c:v>0.18881142573803206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.250505560093713</c:v>
+                  <c:v>0.25050556009371294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.183788980257435</c:v>
+                  <c:v>0.18378898025743526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.73670211254452</c:v>
+                  <c:v>26.736702112544521</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.18629264378865</c:v>
+                  <c:v>12.186292643788645</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12.57657009727432</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.51399388221453</c:v>
+                  <c:v>0.51399388221453002</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.388018251809914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.333898456602782</c:v>
+                  <c:v>3.3338984566027823</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.179724597946241</c:v>
+                  <c:v>5.1797245979462412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.525509131639661</c:v>
+                  <c:v>5.5255091316396614</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.746468893300995</c:v>
+                  <c:v>0.74646889330099464</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.459848052336563</c:v>
+                  <c:v>4.4598480523365636</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.123106254086198</c:v>
+                  <c:v>3.1231062540861982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0189690849902666</c:v>
+                  <c:v>1.8969084990266599E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0109871750404702</c:v>
+                  <c:v>1.098717504047019E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.024591845017175</c:v>
+                  <c:v>2.4591845017175002E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0279851344688347</c:v>
+                  <c:v>2.7985134468834667E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.799778498588537</c:v>
+                  <c:v>6.7997784985885374</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.81170823257037</c:v>
+                  <c:v>16.811708232570375</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.018867236807325</c:v>
+                  <c:v>1.0188672368073255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.148914685666106</c:v>
+                  <c:v>0.14891468566610572</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.167251534702133</c:v>
+                  <c:v>0.16725153470213314</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0626706491862952</c:v>
+                  <c:v>6.2670649186295196E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0439013230216996</c:v>
+                  <c:v>4.3901323021699655E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0310574902159157</c:v>
+                  <c:v>3.1057490215915733E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0136699174242767</c:v>
+                  <c:v>1.3669917424276751E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0135532331666467</c:v>
+                  <c:v>1.3553233166646741E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.039681725163523</c:v>
+                  <c:v>3.9681725163522995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,12 +6325,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="771097200"/>
-        <c:axId val="771098832"/>
+        <c:axId val="84243968"/>
+        <c:axId val="84245504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="771097200"/>
+        <c:axId val="84243968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,10 +6348,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771098832"/>
+        <c:crossAx val="84245504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6373,7 +6359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771098832"/>
+        <c:axId val="84245504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,13 +6370,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771097200"/>
+        <c:crossAx val="84243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6408,7 +6395,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6491,49 +6478,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.70715077715013</c:v>
+                  <c:v>1.7071507771501291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.518030954020677</c:v>
+                  <c:v>3.5180309540206767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.093894891383772</c:v>
+                  <c:v>5.0938948913837718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.697419679416358</c:v>
+                  <c:v>4.6974196794163579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.942645207390992</c:v>
+                  <c:v>1.9426452073909919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.128457231078769</c:v>
+                  <c:v>2.1284572310787686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.794915258275728</c:v>
+                  <c:v>0.79491525827572795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.726180170704996</c:v>
+                  <c:v>0.7261801707049963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.231496296484234</c:v>
+                  <c:v>2.2314962964842344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.589412953046621</c:v>
+                  <c:v>2.5894129530466214</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.912150122288112</c:v>
+                  <c:v>2.9121501222881117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.193455427757742</c:v>
+                  <c:v>3.1934554277577418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.556143692592693</c:v>
+                  <c:v>2.5561436925926926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.851324450912278</c:v>
+                  <c:v>1.8513244509122779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.530556252183621</c:v>
+                  <c:v>1.5305562521836207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6548,12 +6535,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="781320208"/>
-        <c:axId val="781322528"/>
+        <c:axId val="90621440"/>
+        <c:axId val="90622976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="781320208"/>
+        <c:axId val="90621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,10 +6558,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="781322528"/>
+        <c:crossAx val="90622976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6581,7 +6569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="781322528"/>
+        <c:axId val="90622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6592,7 +6580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781320208"/>
+        <c:crossAx val="90621440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6616,7 +6604,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6699,49 +6687,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.623602112789677</c:v>
+                  <c:v>7.6236021127896771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.686627797387857</c:v>
+                  <c:v>3.6866277973878576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.918231504636036</c:v>
+                  <c:v>4.9182315046360365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.596176704278477</c:v>
+                  <c:v>2.5961767042784771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.22476456208424</c:v>
+                  <c:v>3.2247645620842404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.454447694680005</c:v>
+                  <c:v>2.4544476946800047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.779697272636117</c:v>
+                  <c:v>1.7796972726361173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.245562031583009</c:v>
+                  <c:v>1.2455620315830087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.21036045398964</c:v>
+                  <c:v>1.2103604539896395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.363893980532002</c:v>
+                  <c:v>2.3638939805320018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.864562636565609</c:v>
+                  <c:v>0.86456263656560928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.902910200971576</c:v>
+                  <c:v>0.90291020097157626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.392656465334747</c:v>
+                  <c:v>1.3926564653347471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.192365363228027</c:v>
+                  <c:v>1.1923653632280271</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.354502509958061</c:v>
+                  <c:v>1.3545025099580608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,12 +6744,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="781391744"/>
-        <c:axId val="771505808"/>
+        <c:axId val="90634880"/>
+        <c:axId val="86716800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="781391744"/>
+        <c:axId val="90634880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,10 +6767,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771505808"/>
+        <c:crossAx val="86716800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6789,7 +6778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771505808"/>
+        <c:axId val="86716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,7 +6789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781391744"/>
+        <c:crossAx val="90634880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6824,7 +6813,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6907,49 +6896,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.854480987036471</c:v>
+                  <c:v>1.8544809870364711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.628514952132915</c:v>
+                  <c:v>5.6285149521329148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.183662147825</c:v>
+                  <c:v>7.1836621478249993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.223345133104362</c:v>
+                  <c:v>4.2233451331043623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.248904411046552</c:v>
+                  <c:v>1.2489044110465524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.285325523821852</c:v>
+                  <c:v>1.2853255238218517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.750454811749037</c:v>
+                  <c:v>1.7504548117490371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.183860904286015</c:v>
+                  <c:v>1.1838609042860146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.001734732725564</c:v>
+                  <c:v>1.0017347327255637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.866402861949266</c:v>
+                  <c:v>1.8664028619492665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.300052436811022</c:v>
+                  <c:v>1.3000524368110224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.539267143152281</c:v>
+                  <c:v>0.53926714315228086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.356517637740091</c:v>
+                  <c:v>0.35651763774009076</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.811785638912222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.115823402030503</c:v>
+                  <c:v>1.1158234020305029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6964,12 +6953,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="771586064"/>
-        <c:axId val="771587696"/>
+        <c:axId val="86726144"/>
+        <c:axId val="86727680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="771586064"/>
+        <c:axId val="86726144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,10 +6976,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771587696"/>
+        <c:crossAx val="86727680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6997,7 +6987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771587696"/>
+        <c:axId val="86727680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7008,7 +6998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771586064"/>
+        <c:crossAx val="86726144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9850,39 +9840,39 @@
   <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF21" sqref="AF21"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="12.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13.3984375" style="51" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="51" customWidth="1"/>
     <col min="15" max="15" width="15" style="51" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="51" customWidth="1"/>
     <col min="17" max="20" width="15" style="87" customWidth="1"/>
-    <col min="21" max="21" width="12.19921875" style="51" customWidth="1"/>
-    <col min="22" max="22" width="19.19921875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" style="51" customWidth="1"/>
-    <col min="24" max="24" width="10.796875" style="1"/>
-    <col min="25" max="25" width="18.796875" style="51" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="51" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" style="51" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="51" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="1"/>
+    <col min="25" max="25" width="18.85546875" style="51" customWidth="1"/>
     <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="28" width="21.796875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.796875" style="1"/>
-    <col min="30" max="30" width="11.796875" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.796875" style="1"/>
+    <col min="27" max="28" width="21.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="1"/>
+    <col min="30" max="30" width="11.85546875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>113</v>
       </c>
@@ -9917,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -9967,7 +9957,7 @@
         <v>22</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO3" s="1">
         <v>330000</v>
@@ -9975,17 +9965,17 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AK4" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO4" s="1">
         <f>30*10^-6</f>
         <v>2.9999999999999997E-5</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
@@ -9999,25 +9989,25 @@
         <v>543</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AL5" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AM5" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="AO5" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" s="170" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="170" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="532" t="s">
         <v>0</v>
       </c>
@@ -10094,10 +10084,10 @@
         <v>531</v>
       </c>
       <c r="AJ6" s="513" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" s="170" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="170" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="532"/>
       <c r="B7" s="171" t="s">
         <v>2</v>
@@ -10170,25 +10160,25 @@
         <v>472</v>
       </c>
       <c r="AI7" s="170" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AJ7" s="513" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AK7" s="170" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AL7" s="170" t="s">
+        <v>810</v>
+      </c>
+      <c r="AM7" s="170" t="s">
         <v>812</v>
       </c>
-      <c r="AM7" s="170" t="s">
+      <c r="AN7" s="170" t="s">
         <v>814</v>
       </c>
-      <c r="AN7" s="170" t="s">
-        <v>816</v>
-      </c>
       <c r="AO7" s="170" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="148" customFormat="1" x14ac:dyDescent="0.2">
@@ -14148,7 +14138,7 @@
         <v>2833.4549697420011</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="148" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" s="148" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="148" t="s">
         <v>383</v>
       </c>
@@ -14420,7 +14410,7 @@
       <c r="T55" s="51"/>
       <c r="AI55" s="148"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>483</v>
       </c>
@@ -15047,40 +15037,40 @@
       <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" style="51" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="13.796875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.3984375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.796875" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="51" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="13.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1"/>
     <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="13.3984375" style="1" customWidth="1"/>
+    <col min="19" max="24" width="13.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.3984375" style="30" customWidth="1"/>
-    <col min="27" max="27" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.796875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.796875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.796875" style="1"/>
-    <col min="34" max="34" width="16.19921875" customWidth="1"/>
-    <col min="35" max="35" width="8.3984375" style="1" customWidth="1"/>
-    <col min="36" max="39" width="10.796875" style="1"/>
-    <col min="40" max="44" width="13.796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="30" customWidth="1"/>
+    <col min="27" max="27" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="1"/>
+    <col min="34" max="34" width="16.140625" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" style="1" customWidth="1"/>
+    <col min="36" max="39" width="10.85546875" style="1"/>
+    <col min="40" max="44" width="13.85546875" style="1" customWidth="1"/>
     <col min="45" max="45" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="10.796875" style="1"/>
-    <col min="48" max="48" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="52" width="10.796875" style="1"/>
-    <col min="53" max="53" width="16.59765625" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="10.796875" style="1"/>
+    <col min="46" max="47" width="10.85546875" style="1"/>
+    <col min="48" max="48" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="10.85546875" style="1"/>
+    <col min="53" max="53" width="16.5703125" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:198 13812:16384" x14ac:dyDescent="0.2">
@@ -15132,7 +15122,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:198 13812:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:198 13812:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -15177,7 +15167,7 @@
       <c r="I3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:198 13812:16384" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:198 13812:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="D4" t="s">
@@ -15232,7 +15222,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:198 13812:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:198 13812:16384" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>157</v>
       </c>
@@ -15240,7 +15230,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:198 13812:16384" s="146" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:198 13812:16384" s="146" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="143" t="s">
         <v>0</v>
       </c>
@@ -18055,7 +18045,7 @@
       <c r="XFC9" s="1"/>
       <c r="XFD9" s="1"/>
     </row>
-    <row r="10" spans="1:198 13812:16384" s="142" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:198 13812:16384" s="142" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="140" t="s">
         <v>2</v>
@@ -18155,7 +18145,7 @@
       </c>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
@@ -21020,7 +21010,7 @@
         <v>0.15563377272080869</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="BB14" s="1">
         <v>330000</v>
@@ -21061,17 +21051,17 @@
         <v>0.140134400225884</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="BB15" s="1">
         <f>50*10^-6</f>
         <v>4.9999999999999996E-5</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:198 13812:16384" x14ac:dyDescent="0.2">
@@ -21109,22 +21099,22 @@
         <v>0.56069664171113165</v>
       </c>
       <c r="AW16" s="51" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AY16" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="BA16" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="BB16" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
@@ -26691,7 +26681,7 @@
         <v>160.0089105491042</v>
       </c>
     </row>
-    <row r="61" spans="1:49" s="341" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="341" t="s">
         <v>181</v>
       </c>
@@ -26793,7 +26783,7 @@
         <v>204.97644634760908</v>
       </c>
     </row>
-    <row r="62" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="53"/>
       <c r="C62" s="53"/>
@@ -26821,7 +26811,7 @@
       </c>
       <c r="AW62" s="20"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D63" s="54"/>
       <c r="R63" s="30"/>
       <c r="Z63" s="1"/>
@@ -26842,7 +26832,7 @@
       </c>
       <c r="AV63" s="181"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R64" s="30"/>
       <c r="Z64" s="1"/>
       <c r="AF64" s="1" t="s">
@@ -26856,12 +26846,12 @@
         <v>0.27079276262905844</v>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Z65" s="30" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V66" s="1" t="s">
         <v>484</v>
       </c>
@@ -26881,7 +26871,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W67" s="1">
         <v>2650</v>
       </c>
@@ -26911,7 +26901,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V68" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -26945,7 +26935,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V69" s="1">
         <v>24.5</v>
       </c>
@@ -26979,7 +26969,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V70" s="1">
         <v>38.5</v>
       </c>
@@ -27013,7 +27003,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O71" t="s">
         <v>153</v>
       </c>
@@ -27023,7 +27013,7 @@
       </c>
       <c r="Q71" s="20"/>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O72" t="s">
         <v>154</v>
       </c>
@@ -27033,7 +27023,7 @@
       </c>
       <c r="Q72" s="20"/>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O73" t="s">
         <v>155</v>
       </c>
@@ -27049,7 +27039,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="O74" t="s">
         <v>156</v>
       </c>
@@ -27070,7 +27060,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y75" t="s">
         <v>508</v>
       </c>
@@ -27083,7 +27073,7 @@
         <v>122.49999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Y76" t="s">
         <v>489</v>
       </c>
@@ -27096,26 +27086,26 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" s="50" t="s">
         <v>297</v>
       </c>
       <c r="P78" s="178"/>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA81" s="1">
         <f>863^0.5</f>
         <v>29.376861643136763</v>
@@ -27248,41 +27238,41 @@
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="51" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" style="51" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" style="9"/>
-    <col min="8" max="8" width="10.796875" style="1"/>
-    <col min="9" max="9" width="18.19921875" style="51" customWidth="1"/>
-    <col min="10" max="10" width="18.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" style="58" customWidth="1"/>
-    <col min="12" max="14" width="12.19921875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="51" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="18.140625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="58" customWidth="1"/>
+    <col min="12" max="14" width="12.140625" style="9" customWidth="1"/>
     <col min="15" max="17" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.19921875" style="9" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.3984375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="13.796875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3984375" style="51" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="51" customWidth="1"/>
     <col min="23" max="24" width="19" style="1" customWidth="1" outlineLevel="2"/>
-    <col min="25" max="27" width="10.796875" style="1"/>
+    <col min="25" max="27" width="10.85546875" style="1"/>
     <col min="28" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.796875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.796875" style="9"/>
-    <col min="32" max="32" width="10.796875" style="1"/>
-    <col min="33" max="36" width="10.796875" style="201"/>
-    <col min="37" max="37" width="11.3984375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="9"/>
+    <col min="32" max="32" width="10.85546875" style="1"/>
+    <col min="33" max="36" width="10.85546875" style="201"/>
+    <col min="37" max="37" width="11.42578125" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="40" width="11.19921875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="12.3984375" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="10.796875" style="1"/>
+    <col min="39" max="40" width="11.140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="190" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" s="190" customFormat="1" ht="27.95" x14ac:dyDescent="0.2">
       <c r="A1" s="192" t="s">
         <v>113</v>
       </c>
@@ -27321,7 +27311,7 @@
       <c r="AI1" s="200"/>
       <c r="AJ1" s="200"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>114</v>
       </c>
@@ -27372,7 +27362,7 @@
       <c r="J3" s="186"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="1"/>
@@ -27404,7 +27394,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:44" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
@@ -27487,7 +27477,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
         <v>433</v>
       </c>
@@ -35746,305 +35736,305 @@
       <c r="M93" s="7"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F94" s="10"/>
       <c r="M94" s="7"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F95" s="10"/>
       <c r="M95" s="7"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F96" s="10"/>
       <c r="M96" s="7"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F97" s="10"/>
       <c r="M97" s="7"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F98" s="10"/>
       <c r="M98" s="7"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F99" s="10"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F100" s="10"/>
       <c r="M100" s="7"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F101" s="10"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F102" s="10"/>
       <c r="M102" s="7"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F103" s="10"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F104" s="10"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F105" s="10"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F106" s="10"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F107" s="10"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F108" s="10"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:14" x14ac:dyDescent="0.25">
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F110" s="10"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F111" s="10"/>
       <c r="M111" s="7"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F112" s="10"/>
       <c r="M112" s="7"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F113" s="10"/>
       <c r="M113" s="7"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F114" s="10"/>
       <c r="M114" s="7"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F115" s="10"/>
       <c r="M115" s="7"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F116" s="10"/>
       <c r="M116" s="7"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F117" s="10"/>
       <c r="M117" s="7"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F118" s="10"/>
       <c r="M118" s="7"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F119" s="10"/>
       <c r="M119" s="7"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F120" s="10"/>
       <c r="M120" s="7"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F121" s="10"/>
       <c r="M121" s="7"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F122" s="10"/>
       <c r="M122" s="7"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F123" s="10"/>
       <c r="M123" s="7"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F124" s="10"/>
       <c r="M124" s="7"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F125" s="10"/>
       <c r="M125" s="7"/>
       <c r="N125" s="10"/>
     </row>
-    <row r="126" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F126" s="10"/>
       <c r="M126" s="7"/>
       <c r="N126" s="10"/>
     </row>
-    <row r="127" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F127" s="10"/>
       <c r="M127" s="7"/>
       <c r="N127" s="10"/>
     </row>
-    <row r="128" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F128" s="10"/>
       <c r="M128" s="7"/>
       <c r="N128" s="10"/>
     </row>
-    <row r="129" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F129" s="10"/>
       <c r="M129" s="7"/>
       <c r="N129" s="10"/>
     </row>
-    <row r="130" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F130" s="10"/>
       <c r="M130" s="7"/>
       <c r="N130" s="10"/>
     </row>
-    <row r="131" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F131" s="10"/>
       <c r="M131" s="7"/>
       <c r="N131" s="10"/>
     </row>
-    <row r="132" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F132" s="10"/>
       <c r="M132" s="7"/>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F133" s="10"/>
       <c r="M133" s="7"/>
       <c r="N133" s="10"/>
     </row>
-    <row r="134" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F134" s="10"/>
       <c r="M134" s="7"/>
       <c r="N134" s="10"/>
     </row>
-    <row r="135" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F135" s="10"/>
       <c r="M135" s="7"/>
       <c r="N135" s="10"/>
     </row>
-    <row r="136" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F136" s="10"/>
       <c r="M136" s="7"/>
       <c r="N136" s="10"/>
     </row>
-    <row r="137" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F137" s="10"/>
       <c r="M137" s="7"/>
       <c r="N137" s="10"/>
     </row>
-    <row r="138" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F138" s="10"/>
       <c r="M138" s="7"/>
       <c r="N138" s="10"/>
     </row>
-    <row r="139" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F139" s="10"/>
       <c r="M139" s="7"/>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F140" s="10"/>
       <c r="M140" s="7"/>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F141" s="10"/>
       <c r="M141" s="7"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F142" s="10"/>
       <c r="M142" s="7"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F143" s="10"/>
       <c r="M143" s="7"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F144" s="10"/>
       <c r="M144" s="7"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F145" s="10"/>
       <c r="M145" s="7"/>
       <c r="N145" s="10"/>
     </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F146" s="10"/>
       <c r="M146" s="7"/>
       <c r="N146" s="10"/>
     </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F147" s="10"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F148" s="10"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F149" s="10"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F150" s="10"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F151" s="10"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F152" s="10"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F153" s="10"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F154" s="10"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F155" s="10"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F156" s="10"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F157" s="10"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F158" s="10"/>
       <c r="M158" s="7"/>
     </row>
@@ -36099,38 +36089,38 @@
   <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="5" width="12.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="1"/>
-    <col min="7" max="7" width="14.19921875" style="51" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.796875" style="1"/>
-    <col min="10" max="10" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="1"/>
-    <col min="12" max="12" width="10.796875" style="51"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="14.140625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="10.85546875" style="51"/>
     <col min="13" max="13" width="14" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.3984375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="17" width="14" style="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.796875" style="106" customWidth="1"/>
-    <col min="20" max="20" width="18.796875" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.3984375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="15.796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.3984375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.796875" style="1"/>
+    <col min="19" max="19" width="8.85546875" style="106" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>113</v>
       </c>
@@ -36156,7 +36146,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
@@ -36200,7 +36190,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>116</v>
       </c>
@@ -36246,7 +36236,7 @@
       <c r="L4" s="49"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:30" s="22" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="533" t="s">
         <v>0</v>
       </c>
@@ -36314,7 +36304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="22" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="22" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="533"/>
       <c r="C6" s="23" t="s">
         <v>2</v>
@@ -36380,7 +36370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="131" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="131" customFormat="1" ht="27.95" x14ac:dyDescent="0.2">
       <c r="A7" s="128" t="s">
         <v>0</v>
       </c>
@@ -40002,19 +39992,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" style="109" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="49" customWidth="1"/>
-    <col min="4" max="6" width="5.3984375" style="49" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="49" customWidth="1"/>
+    <col min="4" max="6" width="5.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="100" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -41089,7 +41079,7 @@
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
     </row>
-    <row r="42" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="100" t="s">
         <v>377</v>
       </c>
@@ -41115,7 +41105,7 @@
       <c r="I42" s="102"/>
       <c r="J42" s="102"/>
     </row>
-    <row r="43" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="100" t="s">
         <v>377</v>
       </c>
@@ -41141,7 +41131,7 @@
       <c r="I43" s="102"/>
       <c r="J43" s="102"/>
     </row>
-    <row r="44" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="100" t="s">
         <v>378</v>
       </c>
@@ -41167,7 +41157,7 @@
       <c r="I44" s="102"/>
       <c r="J44" s="102"/>
     </row>
-    <row r="45" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="100" t="s">
         <v>378</v>
       </c>
@@ -41193,7 +41183,7 @@
       <c r="I45" s="102"/>
       <c r="J45" s="102"/>
     </row>
-    <row r="46" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="100" t="s">
         <v>378</v>
       </c>
@@ -41219,7 +41209,7 @@
       <c r="I46" s="102"/>
       <c r="J46" s="102"/>
     </row>
-    <row r="47" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="100" t="s">
         <v>378</v>
       </c>
@@ -41245,7 +41235,7 @@
       <c r="I47" s="102"/>
       <c r="J47" s="102"/>
     </row>
-    <row r="48" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="100" t="s">
         <v>378</v>
       </c>
@@ -41271,7 +41261,7 @@
       <c r="I48" s="102"/>
       <c r="J48" s="102"/>
     </row>
-    <row r="49" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="100" t="s">
         <v>378</v>
       </c>
@@ -41297,7 +41287,7 @@
       <c r="I49" s="102"/>
       <c r="J49" s="102"/>
     </row>
-    <row r="50" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="100" t="s">
         <v>378</v>
       </c>
@@ -41323,7 +41313,7 @@
       <c r="I50" s="102"/>
       <c r="J50" s="102"/>
     </row>
-    <row r="51" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="100" t="s">
         <v>378</v>
       </c>
@@ -41349,7 +41339,7 @@
       <c r="I51" s="102"/>
       <c r="J51" s="102"/>
     </row>
-    <row r="52" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="100" t="s">
         <v>378</v>
       </c>
@@ -41375,7 +41365,7 @@
       <c r="I52" s="102"/>
       <c r="J52" s="102"/>
     </row>
-    <row r="53" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="100" t="s">
         <v>378</v>
       </c>
@@ -41401,7 +41391,7 @@
       <c r="I53" s="102"/>
       <c r="J53" s="102"/>
     </row>
-    <row r="54" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="100" t="s">
         <v>378</v>
       </c>
@@ -41427,7 +41417,7 @@
       <c r="I54" s="102"/>
       <c r="J54" s="102"/>
     </row>
-    <row r="55" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="100" t="s">
         <v>378</v>
       </c>
@@ -41453,7 +41443,7 @@
       <c r="I55" s="102"/>
       <c r="J55" s="102"/>
     </row>
-    <row r="56" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="100" t="s">
         <v>378</v>
       </c>
@@ -41479,7 +41469,7 @@
       <c r="I56" s="102"/>
       <c r="J56" s="102"/>
     </row>
-    <row r="57" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="100" t="s">
         <v>378</v>
       </c>
@@ -41505,7 +41495,7 @@
       <c r="I57" s="102"/>
       <c r="J57" s="102"/>
     </row>
-    <row r="58" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="100" t="s">
         <v>378</v>
       </c>
@@ -41531,7 +41521,7 @@
       <c r="I58" s="102"/>
       <c r="J58" s="102"/>
     </row>
-    <row r="59" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="100" t="s">
         <v>378</v>
       </c>
@@ -41557,7 +41547,7 @@
       <c r="I59" s="102"/>
       <c r="J59" s="102"/>
     </row>
-    <row r="60" spans="1:10" s="100" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
         <v>378</v>
       </c>
@@ -41585,7 +41575,7 @@
       <c r="I60" s="102"/>
       <c r="J60" s="102"/>
     </row>
-    <row r="61" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
         <v>378</v>
       </c>
@@ -41611,7 +41601,7 @@
       <c r="I61" s="102"/>
       <c r="J61" s="102"/>
     </row>
-    <row r="62" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="100" t="s">
         <v>378</v>
       </c>
@@ -41637,7 +41627,7 @@
       <c r="I62" s="102"/>
       <c r="J62" s="102"/>
     </row>
-    <row r="63" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="100" t="s">
         <v>378</v>
       </c>
@@ -41663,7 +41653,7 @@
       <c r="I63" s="102"/>
       <c r="J63" s="102"/>
     </row>
-    <row r="64" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="100" t="s">
         <v>378</v>
       </c>
@@ -41689,7 +41679,7 @@
       <c r="I64" s="102"/>
       <c r="J64" s="102"/>
     </row>
-    <row r="65" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
         <v>378</v>
       </c>
@@ -41715,7 +41705,7 @@
       <c r="I65" s="102"/>
       <c r="J65" s="102"/>
     </row>
-    <row r="66" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="100" t="s">
         <v>378</v>
       </c>
@@ -41738,7 +41728,7 @@
       <c r="I66" s="102"/>
       <c r="J66" s="102"/>
     </row>
-    <row r="67" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="100" t="s">
         <v>378</v>
       </c>
@@ -41761,7 +41751,7 @@
       <c r="I67" s="102"/>
       <c r="J67" s="102"/>
     </row>
-    <row r="68" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="100" t="s">
         <v>378</v>
       </c>
@@ -41784,7 +41774,7 @@
       <c r="I68" s="102"/>
       <c r="J68" s="102"/>
     </row>
-    <row r="69" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="100" t="s">
         <v>378</v>
       </c>
@@ -41807,7 +41797,7 @@
       <c r="I69" s="102"/>
       <c r="J69" s="102"/>
     </row>
-    <row r="70" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="100" t="s">
         <v>378</v>
       </c>
@@ -41830,7 +41820,7 @@
       <c r="I70" s="102"/>
       <c r="J70" s="102"/>
     </row>
-    <row r="71" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="100" t="s">
         <v>378</v>
       </c>
@@ -41853,7 +41843,7 @@
       <c r="I71" s="102"/>
       <c r="J71" s="102"/>
     </row>
-    <row r="72" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="100" t="s">
         <v>378</v>
       </c>
@@ -41876,7 +41866,7 @@
       <c r="I72" s="102"/>
       <c r="J72" s="102"/>
     </row>
-    <row r="73" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="100" t="s">
         <v>378</v>
       </c>
@@ -41899,7 +41889,7 @@
       <c r="I73" s="102"/>
       <c r="J73" s="102"/>
     </row>
-    <row r="74" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="100" t="s">
         <v>378</v>
       </c>
@@ -41922,7 +41912,7 @@
       <c r="I74" s="102"/>
       <c r="J74" s="102"/>
     </row>
-    <row r="75" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="100" t="s">
         <v>378</v>
       </c>
@@ -41945,7 +41935,7 @@
       <c r="I75" s="102"/>
       <c r="J75" s="102"/>
     </row>
-    <row r="76" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="100" t="s">
         <v>378</v>
       </c>
@@ -41968,7 +41958,7 @@
       <c r="I76" s="102"/>
       <c r="J76" s="102"/>
     </row>
-    <row r="77" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="100" t="s">
         <v>378</v>
       </c>
@@ -41991,7 +41981,7 @@
       <c r="I77" s="102"/>
       <c r="J77" s="102"/>
     </row>
-    <row r="78" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="100" t="s">
         <v>378</v>
       </c>
@@ -42014,7 +42004,7 @@
       <c r="I78" s="102"/>
       <c r="J78" s="102"/>
     </row>
-    <row r="79" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="100" t="s">
         <v>378</v>
       </c>
@@ -42037,7 +42027,7 @@
       <c r="I79" s="102"/>
       <c r="J79" s="102"/>
     </row>
-    <row r="80" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="100" t="s">
         <v>378</v>
       </c>
@@ -42060,7 +42050,7 @@
       <c r="I80" s="102"/>
       <c r="J80" s="102"/>
     </row>
-    <row r="81" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="100" t="s">
         <v>378</v>
       </c>
@@ -42083,7 +42073,7 @@
       <c r="I81" s="102"/>
       <c r="J81" s="102"/>
     </row>
-    <row r="82" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="100" t="s">
         <v>378</v>
       </c>
@@ -42106,7 +42096,7 @@
       <c r="I82" s="102"/>
       <c r="J82" s="102"/>
     </row>
-    <row r="83" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="100" t="s">
         <v>378</v>
       </c>
@@ -42129,7 +42119,7 @@
       <c r="I83" s="102"/>
       <c r="J83" s="102"/>
     </row>
-    <row r="84" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="100" t="s">
         <v>378</v>
       </c>
@@ -42152,7 +42142,7 @@
       <c r="I84" s="102"/>
       <c r="J84" s="102"/>
     </row>
-    <row r="85" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="100" t="s">
         <v>378</v>
       </c>
@@ -42175,7 +42165,7 @@
       <c r="I85" s="102"/>
       <c r="J85" s="102"/>
     </row>
-    <row r="86" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="100" t="s">
         <v>379</v>
       </c>
@@ -42201,7 +42191,7 @@
       <c r="I86" s="102"/>
       <c r="J86" s="102"/>
     </row>
-    <row r="87" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="100" t="s">
         <v>379</v>
       </c>
@@ -42227,7 +42217,7 @@
       <c r="I87" s="102"/>
       <c r="J87" s="102"/>
     </row>
-    <row r="88" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="100" t="s">
         <v>379</v>
       </c>
@@ -42253,7 +42243,7 @@
       <c r="I88" s="102"/>
       <c r="J88" s="102"/>
     </row>
-    <row r="89" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="100" t="s">
         <v>379</v>
       </c>
@@ -42279,7 +42269,7 @@
       <c r="I89" s="102"/>
       <c r="J89" s="102"/>
     </row>
-    <row r="90" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="100" t="s">
         <v>379</v>
       </c>
@@ -42305,7 +42295,7 @@
       <c r="I90" s="102"/>
       <c r="J90" s="102"/>
     </row>
-    <row r="91" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="100" t="s">
         <v>379</v>
       </c>
@@ -42331,7 +42321,7 @@
       <c r="I91" s="102"/>
       <c r="J91" s="102"/>
     </row>
-    <row r="92" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="100" t="s">
         <v>379</v>
       </c>
@@ -42357,7 +42347,7 @@
       <c r="I92" s="102"/>
       <c r="J92" s="102"/>
     </row>
-    <row r="93" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="100" t="s">
         <v>379</v>
       </c>
@@ -42383,7 +42373,7 @@
       <c r="I93" s="102"/>
       <c r="J93" s="102"/>
     </row>
-    <row r="94" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="100" t="s">
         <v>379</v>
       </c>
@@ -42409,7 +42399,7 @@
       <c r="I94" s="102"/>
       <c r="J94" s="102"/>
     </row>
-    <row r="95" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="100" t="s">
         <v>379</v>
       </c>
@@ -42435,7 +42425,7 @@
       <c r="I95" s="102"/>
       <c r="J95" s="102"/>
     </row>
-    <row r="96" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="100" t="s">
         <v>379</v>
       </c>
@@ -42461,7 +42451,7 @@
       <c r="I96" s="102"/>
       <c r="J96" s="102"/>
     </row>
-    <row r="97" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="100" t="s">
         <v>379</v>
       </c>
@@ -42487,7 +42477,7 @@
       <c r="I97" s="102"/>
       <c r="J97" s="102"/>
     </row>
-    <row r="98" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="100" t="s">
         <v>379</v>
       </c>
@@ -42513,7 +42503,7 @@
       <c r="I98" s="102"/>
       <c r="J98" s="102"/>
     </row>
-    <row r="99" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="100" t="s">
         <v>379</v>
       </c>
@@ -42539,7 +42529,7 @@
       <c r="I99" s="102"/>
       <c r="J99" s="102"/>
     </row>
-    <row r="100" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="100" t="s">
         <v>379</v>
       </c>
@@ -42565,7 +42555,7 @@
       <c r="I100" s="102"/>
       <c r="J100" s="102"/>
     </row>
-    <row r="101" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="100" t="s">
         <v>379</v>
       </c>
@@ -42591,7 +42581,7 @@
       <c r="I101" s="102"/>
       <c r="J101" s="102"/>
     </row>
-    <row r="102" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="100" t="s">
         <v>379</v>
       </c>
@@ -42617,7 +42607,7 @@
       <c r="I102" s="102"/>
       <c r="J102" s="102"/>
     </row>
-    <row r="103" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="100" t="s">
         <v>379</v>
       </c>
@@ -42643,7 +42633,7 @@
       <c r="I103" s="102"/>
       <c r="J103" s="102"/>
     </row>
-    <row r="104" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="100" t="s">
         <v>379</v>
       </c>
@@ -42669,7 +42659,7 @@
       <c r="I104" s="102"/>
       <c r="J104" s="102"/>
     </row>
-    <row r="105" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="100" t="s">
         <v>379</v>
       </c>
@@ -42695,7 +42685,7 @@
       <c r="I105" s="102"/>
       <c r="J105" s="102"/>
     </row>
-    <row r="106" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="100" t="s">
         <v>379</v>
       </c>
@@ -42721,7 +42711,7 @@
       <c r="I106" s="102"/>
       <c r="J106" s="102"/>
     </row>
-    <row r="107" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="100" t="s">
         <v>379</v>
       </c>
@@ -42747,7 +42737,7 @@
       <c r="I107" s="102"/>
       <c r="J107" s="102"/>
     </row>
-    <row r="108" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="100" t="s">
         <v>379</v>
       </c>
@@ -42773,7 +42763,7 @@
       <c r="I108" s="102"/>
       <c r="J108" s="102"/>
     </row>
-    <row r="109" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="100" t="s">
         <v>379</v>
       </c>
@@ -42799,7 +42789,7 @@
       <c r="I109" s="102"/>
       <c r="J109" s="102"/>
     </row>
-    <row r="110" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="100" t="s">
         <v>379</v>
       </c>
@@ -42825,7 +42815,7 @@
       <c r="I110" s="102"/>
       <c r="J110" s="102"/>
     </row>
-    <row r="111" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="100" t="s">
         <v>379</v>
       </c>
@@ -42851,7 +42841,7 @@
       <c r="I111" s="102"/>
       <c r="J111" s="102"/>
     </row>
-    <row r="112" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="100" t="s">
         <v>379</v>
       </c>
@@ -42877,7 +42867,7 @@
       <c r="I112" s="102"/>
       <c r="J112" s="102"/>
     </row>
-    <row r="113" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="100" t="s">
         <v>379</v>
       </c>
@@ -42903,7 +42893,7 @@
       <c r="I113" s="102"/>
       <c r="J113" s="102"/>
     </row>
-    <row r="114" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="100" t="s">
         <v>379</v>
       </c>
@@ -42929,7 +42919,7 @@
       <c r="I114" s="102"/>
       <c r="J114" s="102"/>
     </row>
-    <row r="115" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="100" t="s">
         <v>379</v>
       </c>
@@ -42955,7 +42945,7 @@
       <c r="I115" s="102"/>
       <c r="J115" s="102"/>
     </row>
-    <row r="116" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="100" t="s">
         <v>379</v>
       </c>
@@ -42981,7 +42971,7 @@
       <c r="I116" s="102"/>
       <c r="J116" s="102"/>
     </row>
-    <row r="117" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="100" t="s">
         <v>379</v>
       </c>
@@ -43007,7 +42997,7 @@
       <c r="I117" s="102"/>
       <c r="J117" s="102"/>
     </row>
-    <row r="118" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="100" t="s">
         <v>379</v>
       </c>
@@ -43033,7 +43023,7 @@
       <c r="I118" s="102"/>
       <c r="J118" s="102"/>
     </row>
-    <row r="119" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="100" t="s">
         <v>379</v>
       </c>
@@ -43059,7 +43049,7 @@
       <c r="I119" s="102"/>
       <c r="J119" s="102"/>
     </row>
-    <row r="120" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="100" t="s">
         <v>379</v>
       </c>
@@ -43085,7 +43075,7 @@
       <c r="I120" s="102"/>
       <c r="J120" s="102"/>
     </row>
-    <row r="121" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="100" t="s">
         <v>379</v>
       </c>
@@ -43111,7 +43101,7 @@
       <c r="I121" s="102"/>
       <c r="J121" s="102"/>
     </row>
-    <row r="122" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="100" t="s">
         <v>379</v>
       </c>
@@ -43137,7 +43127,7 @@
       <c r="I122" s="102"/>
       <c r="J122" s="102"/>
     </row>
-    <row r="123" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="100" t="s">
         <v>379</v>
       </c>
@@ -43163,7 +43153,7 @@
       <c r="I123" s="102"/>
       <c r="J123" s="102"/>
     </row>
-    <row r="124" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="100" t="s">
         <v>379</v>
       </c>
@@ -43189,7 +43179,7 @@
       <c r="I124" s="102"/>
       <c r="J124" s="102"/>
     </row>
-    <row r="125" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="100" t="s">
         <v>379</v>
       </c>
@@ -43215,7 +43205,7 @@
       <c r="I125" s="102"/>
       <c r="J125" s="102"/>
     </row>
-    <row r="126" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="100" t="s">
         <v>379</v>
       </c>
@@ -43241,7 +43231,7 @@
       <c r="I126" s="102"/>
       <c r="J126" s="102"/>
     </row>
-    <row r="127" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="100" t="s">
         <v>379</v>
       </c>
@@ -43267,7 +43257,7 @@
       <c r="I127" s="102"/>
       <c r="J127" s="102"/>
     </row>
-    <row r="128" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="100" t="s">
         <v>379</v>
       </c>
@@ -43293,7 +43283,7 @@
       <c r="I128" s="102"/>
       <c r="J128" s="102"/>
     </row>
-    <row r="129" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="100" t="s">
         <v>379</v>
       </c>
@@ -43319,7 +43309,7 @@
       <c r="I129" s="102"/>
       <c r="J129" s="102"/>
     </row>
-    <row r="130" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="100" t="s">
         <v>379</v>
       </c>
@@ -43345,7 +43335,7 @@
       <c r="I130" s="102"/>
       <c r="J130" s="102"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="100" t="s">
         <v>380</v>
       </c>
@@ -43374,7 +43364,7 @@
         <v>7.1209308306388788E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="100" t="s">
         <v>380</v>
       </c>
@@ -43403,7 +43393,7 @@
         <v>4.7100274771937105</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="100" t="s">
         <v>380</v>
       </c>
@@ -43432,7 +43422,7 @@
         <v>1.4922812561593075</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="100" t="s">
         <v>380</v>
       </c>
@@ -43461,7 +43451,7 @@
         <v>0.78622876573564759</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="100" t="s">
         <v>380</v>
       </c>
@@ -43490,7 +43480,7 @@
         <v>0.15861367813309599</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="100" t="s">
         <v>380</v>
       </c>
@@ -43519,7 +43509,7 @@
         <v>2.5117073539644878E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="100" t="s">
         <v>380</v>
       </c>
@@ -43548,7 +43538,7 @@
         <v>1.9431834569943376E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="100" t="s">
         <v>380</v>
       </c>
@@ -43577,7 +43567,7 @@
         <v>7.190954386025683E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="100" t="s">
         <v>380</v>
       </c>
@@ -43606,7 +43596,7 @@
         <v>19.655741110168037</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="100" t="s">
         <v>380</v>
       </c>
@@ -43635,7 +43625,7 @@
         <v>3.9049584058374366E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="100" t="s">
         <v>380</v>
       </c>
@@ -43664,7 +43654,7 @@
         <v>10.474257265451554</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="100" t="s">
         <v>380</v>
       </c>
@@ -43693,7 +43683,7 @@
         <v>26.436545198895246</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="100" t="s">
         <v>380</v>
       </c>
@@ -43722,7 +43712,7 @@
         <v>4.7818267109340464</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="100" t="s">
         <v>380</v>
       </c>
@@ -43751,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="100" t="s">
         <v>380</v>
       </c>
@@ -43780,7 +43770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="100" t="s">
         <v>380</v>
       </c>
@@ -43809,7 +43799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="100" t="s">
         <v>380</v>
       </c>
@@ -43838,7 +43828,7 @@
         <v>1.8939970045595726</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="100" t="s">
         <v>380</v>
       </c>
@@ -43867,7 +43857,7 @@
         <v>1.6133322294475281</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="100" t="s">
         <v>380</v>
       </c>
@@ -43896,7 +43886,7 @@
         <v>4.2894488034199671</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="100" t="s">
         <v>380</v>
       </c>
@@ -43925,7 +43915,7 @@
         <v>0.77623265084666182</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="100" t="s">
         <v>380</v>
       </c>
@@ -43954,7 +43944,7 @@
         <v>5.7082362152060154E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="100" t="s">
         <v>380</v>
       </c>
@@ -43983,7 +43973,7 @@
         <v>0.54515253090398719</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="100" t="s">
         <v>380</v>
       </c>
@@ -44012,7 +44002,7 @@
         <v>4.5620655839786167E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="100" t="s">
         <v>380</v>
       </c>
@@ -44041,7 +44031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="100" t="s">
         <v>380</v>
       </c>
@@ -44070,7 +44060,7 @@
         <v>0.3170811542959478</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="100" t="s">
         <v>380</v>
       </c>
@@ -44099,7 +44089,7 @@
         <v>2.4654299522121902E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="100" t="s">
         <v>380</v>
       </c>
@@ -44128,7 +44118,7 @@
         <v>0.14494456847663487</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="100" t="s">
         <v>380</v>
       </c>
@@ -44157,7 +44147,7 @@
         <v>4.629190091554726E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="100" t="s">
         <v>380</v>
       </c>
@@ -44186,7 +44176,7 @@
         <v>5.3678804929856064E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="100" t="s">
         <v>380</v>
       </c>
@@ -44215,7 +44205,7 @@
         <v>5.2875589260151497</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="100" t="s">
         <v>380</v>
       </c>
@@ -44244,7 +44234,7 @@
         <v>4.8247509176049606E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="100" t="s">
         <v>380</v>
       </c>
@@ -44273,7 +44263,7 @@
         <v>12.689352984206868</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="100" t="s">
         <v>380</v>
       </c>
@@ -44302,7 +44292,7 @@
         <v>4.6159807299304488E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="100" t="s">
         <v>380</v>
       </c>
@@ -44331,7 +44321,7 @@
         <v>8.954796287550792</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="100" t="s">
         <v>380</v>
       </c>
@@ -44360,7 +44350,7 @@
         <v>9.554011391778074</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="100" t="s">
         <v>380</v>
       </c>
@@ -44389,7 +44379,7 @@
         <v>0.84053259551128967</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="100" t="s">
         <v>380</v>
       </c>
@@ -44418,7 +44408,7 @@
         <v>1.4933140563512084</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="100" t="s">
         <v>380</v>
       </c>
@@ -44447,7 +44437,7 @@
         <v>2.1830899392775001</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="100" t="s">
         <v>380</v>
       </c>
@@ -44476,7 +44466,7 @@
         <v>0.1183754701228288</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="100" t="s">
         <v>380</v>
       </c>
@@ -44505,7 +44495,7 @@
         <v>3.322353482444742</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="100" t="s">
         <v>380</v>
       </c>
@@ -44534,7 +44524,7 @@
         <v>1.3002573526295005</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="100" t="s">
         <v>380</v>
       </c>
@@ -44563,7 +44553,7 @@
         <v>4.2858997389635967</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="100" t="s">
         <v>380</v>
       </c>
@@ -44592,7 +44582,7 @@
         <v>0.48011716983617958</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="100" t="s">
         <v>380</v>
       </c>
@@ -44621,7 +44611,7 @@
         <v>2.6046350498386876E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="100" t="s">
         <v>380</v>
       </c>
@@ -44650,7 +44640,7 @@
         <v>0.54545091017240221</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="100" t="s">
         <v>380</v>
       </c>
@@ -44679,7 +44669,7 @@
         <v>0.6248086058480572</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="100" t="s">
         <v>380</v>
       </c>
@@ -44708,7 +44698,7 @@
         <v>0.25929537973923739</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="100" t="s">
         <v>380</v>
       </c>
@@ -44737,7 +44727,7 @@
         <v>2.4901053346645607</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="100" t="s">
         <v>380</v>
       </c>
@@ -44766,7 +44756,7 @@
         <v>4.9645296795635172</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="100" t="s">
         <v>380</v>
       </c>
@@ -44795,7 +44785,7 @@
         <v>6.1733821758613177</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="100" t="s">
         <v>380</v>
       </c>
@@ -44824,7 +44814,7 @@
         <v>7.6020978797797734E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="100" t="s">
         <v>380</v>
       </c>
@@ -44853,7 +44843,7 @@
         <v>11.619827890683689</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="100" t="s">
         <v>380</v>
       </c>
@@ -44882,7 +44872,7 @@
         <v>0.80189733937116681</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="100" t="s">
         <v>380</v>
       </c>
@@ -44911,7 +44901,7 @@
         <v>1.627753181340762</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="100" t="s">
         <v>380</v>
       </c>
@@ -44940,7 +44930,7 @@
         <v>7.3505831332826919</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="100" t="s">
         <v>380</v>
       </c>
@@ -44969,7 +44959,7 @@
         <v>0.23943910472767904</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="100" t="s">
         <v>380</v>
       </c>
@@ -44998,7 +44988,7 @@
         <v>0.64158457498491972</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="100" t="s">
         <v>380</v>
       </c>
@@ -45027,7 +45017,7 @@
         <v>0.86920350441330485</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="100" t="s">
         <v>380</v>
       </c>
@@ -45056,7 +45046,7 @@
         <v>1.0407978409501251E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="100" t="s">
         <v>380</v>
       </c>
@@ -45085,7 +45075,7 @@
         <v>1.7455615430656771E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="100" t="s">
         <v>380</v>
       </c>
@@ -45114,7 +45104,7 @@
         <v>5.0435847169925954E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="100" t="s">
         <v>380</v>
       </c>
@@ -45143,7 +45133,7 @@
         <v>0.11725989415012446</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="100" t="s">
         <v>380</v>
       </c>
@@ -45172,7 +45162,7 @@
         <v>6.1355194421851569E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="100" t="s">
         <v>380</v>
       </c>
@@ -45201,7 +45191,7 @@
         <v>3.3088807758133346E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="100" t="s">
         <v>380</v>
       </c>
@@ -45230,7 +45220,7 @@
         <v>9.0784944260437317E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="100" t="s">
         <v>380</v>
       </c>
@@ -45268,30 +45258,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="49"/>
-    <col min="2" max="2" width="16.3984375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="49" customWidth="1"/>
     <col min="3" max="3" width="13" style="49"/>
-    <col min="4" max="4" width="16.3984375" style="260" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" customWidth="1"/>
-    <col min="13" max="13" width="23.796875" style="49" customWidth="1"/>
-    <col min="14" max="14" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.796875" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="260" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="49" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
@@ -48606,83 +48596,83 @@
         <v>740</v>
       </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" s="323">
         <f>STDEVA(G17,I17,I25,G25)</f>
         <v>1.2348160295917813E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:31" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:31" ht="45" x14ac:dyDescent="0.25">
       <c r="B76" s="217" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" s="325">
         <v>3.3902809999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" s="326">
         <v>2.906301E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" s="327">
         <v>4.7378990000000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" s="326">
         <v>2.058016E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="326">
         <v>5.8765919999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="326">
         <v>6.333722E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="326">
         <v>3.770577E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="326">
         <v>3.7831299999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="326">
         <v>3.3803399999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="326">
         <v>6.603328E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="326">
         <v>5.1178920000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="326">
         <v>4.8228760000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="326">
         <v>4.9402109999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="326">
         <v>3.9429890000000002E-2</v>
       </c>
@@ -48697,1993 +48687,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="541" t="s">
-        <v>772</v>
-      </c>
-      <c r="B1" s="447"/>
-      <c r="C1" s="536" t="s">
-        <v>771</v>
-      </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="448"/>
-      <c r="F1" s="448"/>
-      <c r="G1" s="448"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="449"/>
-      <c r="J1" s="448"/>
-      <c r="K1" s="448"/>
-      <c r="L1" s="448"/>
-      <c r="M1" s="448"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="542"/>
-      <c r="B2" s="451" t="s">
-        <v>744</v>
-      </c>
-      <c r="C2" s="451" t="s">
-        <v>747</v>
-      </c>
-      <c r="D2" s="452" t="s">
-        <v>748</v>
-      </c>
-      <c r="E2" s="448"/>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="448"/>
-      <c r="I2" s="448"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="448"/>
-      <c r="L2" s="448"/>
-      <c r="M2" s="448"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="453" t="s">
-        <v>745</v>
-      </c>
-      <c r="B3" s="454">
-        <v>915</v>
-      </c>
-      <c r="C3" s="454" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="455">
-        <v>2.1</v>
-      </c>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="449"/>
-      <c r="J3" s="449"/>
-      <c r="K3" s="448"/>
-      <c r="L3" s="448"/>
-      <c r="M3" s="448"/>
-    </row>
-    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="456" t="s">
-        <v>746</v>
-      </c>
-      <c r="B4" s="457">
-        <v>960</v>
-      </c>
-      <c r="C4" s="457">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="458">
-        <v>2</v>
-      </c>
-      <c r="E4" s="448"/>
-      <c r="F4" s="448"/>
-      <c r="G4" s="448"/>
-      <c r="H4" s="448"/>
-      <c r="I4" s="449"/>
-      <c r="J4" s="449"/>
-      <c r="K4" s="448"/>
-      <c r="L4" s="448"/>
-      <c r="M4" s="448"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="453"/>
-      <c r="B5" s="459"/>
-      <c r="C5" s="459"/>
-      <c r="D5" s="454"/>
-      <c r="E5" s="454"/>
-      <c r="F5" s="448"/>
-      <c r="G5" s="448"/>
-      <c r="H5" s="448"/>
-      <c r="I5" s="449"/>
-      <c r="J5" s="449"/>
-      <c r="K5" s="449"/>
-      <c r="L5" s="448"/>
-      <c r="M5" s="448"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="460" t="s">
-        <v>773</v>
-      </c>
-      <c r="B6" s="447"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="449"/>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="449"/>
-      <c r="J6" s="449"/>
-      <c r="K6" s="448"/>
-      <c r="L6" s="448"/>
-      <c r="M6" s="448"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="374" t="s">
-        <v>598</v>
-      </c>
-      <c r="B7" s="375" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="379">
-        <v>2</v>
-      </c>
-      <c r="D7" s="449"/>
-      <c r="E7" s="448"/>
-      <c r="F7" s="448"/>
-      <c r="G7" s="448"/>
-      <c r="H7" s="449"/>
-      <c r="I7" s="449"/>
-      <c r="J7" s="449"/>
-      <c r="K7" s="448"/>
-      <c r="L7" s="448"/>
-      <c r="M7" s="448"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="374" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="375" t="s">
-        <v>625</v>
-      </c>
-      <c r="C8" s="379">
-        <f>D3</f>
-        <v>2.1</v>
-      </c>
-      <c r="D8" s="449"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="448"/>
-      <c r="G8" s="448"/>
-      <c r="H8" s="449"/>
-      <c r="I8" s="449"/>
-      <c r="J8" s="449"/>
-      <c r="K8" s="448"/>
-      <c r="L8" s="448"/>
-      <c r="M8" s="448"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="376" t="s">
-        <v>595</v>
-      </c>
-      <c r="B9" s="377" t="s">
-        <v>625</v>
-      </c>
-      <c r="C9" s="380">
-        <f>D3</f>
-        <v>2.1</v>
-      </c>
-      <c r="D9" s="449"/>
-      <c r="E9" s="448"/>
-      <c r="F9" s="448"/>
-      <c r="G9" s="448"/>
-      <c r="H9" s="449"/>
-      <c r="I9" s="449"/>
-      <c r="J9" s="449"/>
-      <c r="K9" s="448"/>
-      <c r="L9" s="448"/>
-      <c r="M9" s="448"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
-      <c r="B10" s="448"/>
-      <c r="C10" s="448"/>
-      <c r="D10" s="448"/>
-      <c r="E10" s="448"/>
-      <c r="F10" s="448"/>
-      <c r="G10" s="448"/>
-      <c r="H10" s="448"/>
-      <c r="I10" s="449"/>
-      <c r="J10" s="449"/>
-      <c r="K10" s="449"/>
-      <c r="L10" s="448"/>
-      <c r="M10" s="448"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="462" t="s">
-        <v>776</v>
-      </c>
-      <c r="B11" s="463"/>
-      <c r="C11" s="464"/>
-      <c r="D11" s="448"/>
-      <c r="E11" s="448"/>
-      <c r="F11" s="448"/>
-      <c r="G11" s="448"/>
-      <c r="H11" s="448"/>
-      <c r="I11" s="449"/>
-      <c r="J11" s="449"/>
-      <c r="K11" s="449"/>
-      <c r="L11" s="448"/>
-      <c r="M11" s="448"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="465" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="454">
-        <f>0.98*10^6</f>
-        <v>980000</v>
-      </c>
-      <c r="C12" s="466" t="s">
-        <v>565</v>
-      </c>
-      <c r="D12" s="448"/>
-      <c r="E12" s="448"/>
-      <c r="F12" s="448"/>
-      <c r="G12" s="448"/>
-      <c r="H12" s="448"/>
-      <c r="I12" s="449"/>
-      <c r="J12" s="449"/>
-      <c r="K12" s="449"/>
-      <c r="L12" s="448"/>
-      <c r="M12" s="448"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="456" t="s">
-        <v>774</v>
-      </c>
-      <c r="B13" s="457">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="452" t="s">
-        <v>775</v>
-      </c>
-      <c r="D13" s="448"/>
-      <c r="E13" s="448"/>
-      <c r="F13" s="448"/>
-      <c r="G13" s="448"/>
-      <c r="H13" s="448"/>
-      <c r="I13" s="449"/>
-      <c r="J13" s="449"/>
-      <c r="K13" s="449"/>
-      <c r="L13" s="448"/>
-      <c r="M13" s="448"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="448"/>
-      <c r="B14" s="448"/>
-      <c r="D14" s="448"/>
-      <c r="E14" s="448"/>
-      <c r="F14" s="448"/>
-      <c r="G14" s="448"/>
-      <c r="H14" s="448"/>
-      <c r="I14" s="449"/>
-      <c r="J14" s="449"/>
-      <c r="K14" s="449"/>
-      <c r="L14" s="448"/>
-      <c r="M14" s="448"/>
-    </row>
-    <row r="15" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="448"/>
-      <c r="B15" s="448"/>
-      <c r="C15" s="381" t="s">
-        <v>777</v>
-      </c>
-      <c r="E15" s="538" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" s="539"/>
-      <c r="G15" s="539"/>
-      <c r="H15" s="539"/>
-      <c r="I15" s="539"/>
-      <c r="J15" s="539"/>
-      <c r="K15" s="539"/>
-      <c r="L15" s="539"/>
-      <c r="M15" s="540"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="221" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="221" t="s">
-        <v>570</v>
-      </c>
-      <c r="C16" s="221" t="s">
-        <v>571</v>
-      </c>
-      <c r="D16" s="368" t="s">
-        <v>572</v>
-      </c>
-      <c r="E16" s="472" t="s">
-        <v>573</v>
-      </c>
-      <c r="F16" s="378" t="s">
-        <v>574</v>
-      </c>
-      <c r="G16" s="378" t="s">
-        <v>575</v>
-      </c>
-      <c r="H16" s="378" t="s">
-        <v>576</v>
-      </c>
-      <c r="I16" s="378" t="s">
-        <v>577</v>
-      </c>
-      <c r="J16" s="378" t="s">
-        <v>578</v>
-      </c>
-      <c r="K16" s="378" t="s">
-        <v>749</v>
-      </c>
-      <c r="L16" s="378" t="s">
-        <v>579</v>
-      </c>
-      <c r="M16" s="473" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="386" t="s">
-        <v>784</v>
-      </c>
-      <c r="B17" s="387" t="s">
-        <v>596</v>
-      </c>
-      <c r="C17" s="388" t="s">
-        <v>597</v>
-      </c>
-      <c r="D17" s="389">
-        <v>17140.800999999999</v>
-      </c>
-      <c r="E17" s="492">
-        <v>42527</v>
-      </c>
-      <c r="F17" s="387" t="str">
-        <f>IF(A17="Speich***",$B$9,IF(A17="Friess",$B$7,IF(A17="Mathis",$B$8)))</f>
-        <v>DG</v>
-      </c>
-      <c r="G17" s="387">
-        <f>G37</f>
-        <v>915</v>
-      </c>
-      <c r="H17" s="390">
-        <v>1.71408</v>
-      </c>
-      <c r="I17" s="391">
-        <f>IF(A17="Speich***",$C$9,IF(A17="Friess",$C$7,IF(A17="Mathis",$C$8)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="J17" s="390">
-        <f>G17*H17*I17</f>
-        <v>3293.6047200000003</v>
-      </c>
-      <c r="K17" s="390">
-        <f>J17/D17</f>
-        <v>0.19214998878990547</v>
-      </c>
-      <c r="L17" s="392">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M17" s="493">
-        <f>J17/$J$38</f>
-        <v>6.2982700838870059E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="398" t="s">
-        <v>598</v>
-      </c>
-      <c r="B18" s="375" t="s">
-        <v>599</v>
-      </c>
-      <c r="C18" s="399" t="s">
-        <v>600</v>
-      </c>
-      <c r="D18" s="400">
-        <v>43903.300999999999</v>
-      </c>
-      <c r="E18" s="494">
-        <v>42449</v>
-      </c>
-      <c r="F18" s="375" t="str">
-        <f>IF(A18="Speich",$B$9,IF(A18="Friess",$B$7,IF(A18="Mathis",$B$8)))</f>
-        <v>MG</v>
-      </c>
-      <c r="G18" s="400">
-        <f>IF(F18="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H18" s="401">
-        <v>4.3903299999999996</v>
-      </c>
-      <c r="I18" s="402">
-        <f>IF(A18="Speich",$C$9,IF(A18="Friess",$C$7,IF(A18="Mathis",$C$8)))</f>
-        <v>2</v>
-      </c>
-      <c r="J18" s="401">
-        <f>G18*H18*I18</f>
-        <v>8429.4335999999985</v>
-      </c>
-      <c r="K18" s="401">
-        <f t="shared" ref="K18:K37" si="0">J18/D18</f>
-        <v>0.19199999562675249</v>
-      </c>
-      <c r="L18" s="403">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M18" s="495">
-        <f>J18/$J$38</f>
-        <v>0.16119374964641153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="409" t="s">
-        <v>781</v>
-      </c>
-      <c r="B19" s="353" t="s">
-        <v>596</v>
-      </c>
-      <c r="C19" s="353" t="s">
-        <v>604</v>
-      </c>
-      <c r="D19" s="410">
-        <v>29073.1</v>
-      </c>
-      <c r="E19" s="496" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="353">
-        <v>0</v>
-      </c>
-      <c r="H19" s="241">
-        <f>D19/10000</f>
-        <v>2.9073099999999998</v>
-      </c>
-      <c r="I19" s="353">
-        <v>0</v>
-      </c>
-      <c r="J19" s="353">
-        <v>0</v>
-      </c>
-      <c r="K19" s="353">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B20" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C20" s="414" t="s">
-        <v>607</v>
-      </c>
-      <c r="D20" s="410">
-        <v>9452.5</v>
-      </c>
-      <c r="E20" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F20" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G20" s="410">
-        <f>IF(F20="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H20" s="241">
-        <v>0.94525099999999995</v>
-      </c>
-      <c r="I20" s="410">
-        <f>IF(A20="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="241">
-        <f>G20*H20*I20</f>
-        <v>1814.8819199999998</v>
-      </c>
-      <c r="K20" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19200020312086746</v>
-      </c>
-      <c r="L20" s="415">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M20" s="497">
-        <f>J20/$J$38</f>
-        <v>3.4705489803049008E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="409" t="s">
-        <v>603</v>
-      </c>
-      <c r="B21" s="353" t="s">
-        <v>596</v>
-      </c>
-      <c r="C21" s="414" t="s">
-        <v>610</v>
-      </c>
-      <c r="D21" s="410">
-        <v>8369.2001999999993</v>
-      </c>
-      <c r="E21" s="496" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="353">
-        <v>0</v>
-      </c>
-      <c r="H21" s="241">
-        <f>D21/10000</f>
-        <v>0.83692001999999999</v>
-      </c>
-      <c r="I21" s="353">
-        <v>0</v>
-      </c>
-      <c r="J21" s="353">
-        <v>0</v>
-      </c>
-      <c r="K21" s="353">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B22" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C22" s="414" t="s">
-        <v>612</v>
-      </c>
-      <c r="D22" s="410">
-        <v>13776.5</v>
-      </c>
-      <c r="E22" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F22" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G22" s="410">
-        <f>IF(F22="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H22" s="241">
-        <v>1.37765</v>
-      </c>
-      <c r="I22" s="410">
-        <f>IF(A22="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J22" s="241">
-        <f>G22*H22*I22</f>
-        <v>2645.0880000000002</v>
-      </c>
-      <c r="K22" s="241">
-        <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-      <c r="L22" s="415">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M22" s="497">
-        <f>J22/$J$38</f>
-        <v>5.058129325139088E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B23" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C23" s="414" t="s">
-        <v>614</v>
-      </c>
-      <c r="D23" s="410">
-        <v>17448.599999999999</v>
-      </c>
-      <c r="E23" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F23" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G23" s="410">
-        <f>IF(F23="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H23" s="241">
-        <v>1.7448600000000001</v>
-      </c>
-      <c r="I23" s="410">
-        <f>IF(A23="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J23" s="241">
-        <f>G23*H23*I23</f>
-        <v>3350.1312000000003</v>
-      </c>
-      <c r="K23" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19200000000000003</v>
-      </c>
-      <c r="L23" s="415">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M23" s="497">
-        <f>J23/$J$38</f>
-        <v>6.4063641231533325E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="413" t="s">
-        <v>780</v>
-      </c>
-      <c r="B24" s="353" t="s">
-        <v>596</v>
-      </c>
-      <c r="C24" s="418" t="s">
-        <v>616</v>
-      </c>
-      <c r="D24" s="410">
-        <v>10682.2</v>
-      </c>
-      <c r="E24" s="498">
-        <v>42527</v>
-      </c>
-      <c r="F24" s="353" t="s">
-        <v>625</v>
-      </c>
-      <c r="G24" s="410">
-        <f>IF(F24="MG",$B$4,$B$3)</f>
-        <v>915</v>
-      </c>
-      <c r="H24" s="241">
-        <v>1.0682199999999999</v>
-      </c>
-      <c r="I24" s="410">
-        <v>2.1</v>
-      </c>
-      <c r="J24" s="241">
-        <f>G24*H24*I24</f>
-        <v>2052.58473</v>
-      </c>
-      <c r="K24" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19214999999999999</v>
-      </c>
-      <c r="L24" s="415">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M24" s="497">
-        <f>J24/$J$38</f>
-        <v>3.9251015524419966E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B25" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C25" s="414" t="s">
-        <v>618</v>
-      </c>
-      <c r="D25" s="410">
-        <v>2965.98</v>
-      </c>
-      <c r="E25" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F25" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G25" s="410">
-        <f>IF(F25="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H25" s="241">
-        <v>0.29659799999999997</v>
-      </c>
-      <c r="I25" s="410">
-        <f>IF(A25="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J25" s="241">
-        <f>G25*H25*I25</f>
-        <v>569.4681599999999</v>
-      </c>
-      <c r="K25" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19199999999999998</v>
-      </c>
-      <c r="L25" s="415">
-        <f>$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M25" s="497">
-        <f>J25/$J$38</f>
-        <v>1.0889783628480403E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="409" t="s">
-        <v>782</v>
-      </c>
-      <c r="B26" s="353" t="s">
-        <v>596</v>
-      </c>
-      <c r="C26" s="414" t="s">
-        <v>619</v>
-      </c>
-      <c r="D26" s="410">
-        <v>3360.51</v>
-      </c>
-      <c r="E26" s="496" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="353">
-        <v>0</v>
-      </c>
-      <c r="H26" s="241">
-        <f>D26/10000</f>
-        <v>0.33605100000000004</v>
-      </c>
-      <c r="I26" s="353">
-        <v>0</v>
-      </c>
-      <c r="J26" s="353">
-        <v>0</v>
-      </c>
-      <c r="K26" s="353">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="353" t="s">
-        <v>210</v>
-      </c>
-      <c r="M26" s="359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B27" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27" s="414" t="s">
-        <v>620</v>
-      </c>
-      <c r="D27" s="410">
-        <v>5336.0801000000001</v>
-      </c>
-      <c r="E27" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F27" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G27" s="410">
-        <f t="shared" ref="G27:G37" si="1">IF(F27="MG",$B$4,$B$3)</f>
-        <v>960</v>
-      </c>
-      <c r="H27" s="241">
-        <v>0.53360799999999997</v>
-      </c>
-      <c r="I27" s="410">
-        <f>IF(A27="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="241">
-        <f t="shared" ref="J27:J37" si="2">G27*H27*I27</f>
-        <v>1024.52736</v>
-      </c>
-      <c r="K27" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19199999640185311</v>
-      </c>
-      <c r="L27" s="415">
-        <f t="shared" ref="L27:L37" si="3">$B$69</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M27" s="497">
-        <f t="shared" ref="M27:M37" si="4">J27/$J$38</f>
-        <v>1.959175605508524E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="413" t="s">
-        <v>606</v>
-      </c>
-      <c r="B28" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C28" s="414" t="s">
-        <v>621</v>
-      </c>
-      <c r="D28" s="410">
-        <v>7356.8301000000001</v>
-      </c>
-      <c r="E28" s="496">
-        <v>42473</v>
-      </c>
-      <c r="F28" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G28" s="410">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H28" s="241">
-        <v>0.73568299999999998</v>
-      </c>
-      <c r="I28" s="410">
-        <f>IF(A28="Kopp",$D$4,$C$4)</f>
-        <v>2</v>
-      </c>
-      <c r="J28" s="241">
-        <f t="shared" si="2"/>
-        <v>1412.51136</v>
-      </c>
-      <c r="K28" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19199999739018031</v>
-      </c>
-      <c r="L28" s="415">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M28" s="497">
-        <f t="shared" si="4"/>
-        <v>2.7011067806092252E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="398" t="s">
-        <v>598</v>
-      </c>
-      <c r="B29" s="375" t="s">
-        <v>599</v>
-      </c>
-      <c r="C29" s="399" t="s">
-        <v>622</v>
-      </c>
-      <c r="D29" s="400">
-        <v>14204.8</v>
-      </c>
-      <c r="E29" s="494">
-        <v>42449</v>
-      </c>
-      <c r="F29" s="375" t="str">
-        <f>IF(A29="Speich",$B$9,IF(A29="Friess",$B$7,IF(A29="Mathis",$B$8)))</f>
-        <v>MG</v>
-      </c>
-      <c r="G29" s="400">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H29" s="401">
-        <v>1.42048</v>
-      </c>
-      <c r="I29" s="402">
-        <f>IF(A29="Speich",$C$9,IF(A29="Friess",$C$7,IF(A29="Mathis",$C$8)))</f>
-        <v>2</v>
-      </c>
-      <c r="J29" s="401">
-        <f t="shared" si="2"/>
-        <v>2727.3215999999998</v>
-      </c>
-      <c r="K29" s="401">
-        <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-      <c r="L29" s="403">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M29" s="495">
-        <f t="shared" si="4"/>
-        <v>5.2153823857827242E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="409" t="s">
-        <v>785</v>
-      </c>
-      <c r="B30" s="353" t="s">
-        <v>596</v>
-      </c>
-      <c r="C30" s="414" t="s">
-        <v>624</v>
-      </c>
-      <c r="D30" s="410">
-        <v>9383.6396000000004</v>
-      </c>
-      <c r="E30" s="499">
-        <v>42515</v>
-      </c>
-      <c r="F30" s="353" t="s">
-        <v>625</v>
-      </c>
-      <c r="G30" s="410">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="H30" s="241">
-        <v>0.93836399999999998</v>
-      </c>
-      <c r="I30" s="410">
-        <v>2.1</v>
-      </c>
-      <c r="J30" s="241">
-        <f t="shared" si="2"/>
-        <v>1803.0664260000001</v>
-      </c>
-      <c r="K30" s="241">
-        <f t="shared" si="0"/>
-        <v>0.19215000819085165</v>
-      </c>
-      <c r="L30" s="415">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M30" s="497">
-        <f t="shared" si="4"/>
-        <v>3.4479545347921609E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="413" t="s">
-        <v>626</v>
-      </c>
-      <c r="B31" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C31" s="418" t="s">
-        <v>627</v>
-      </c>
-      <c r="D31" s="410">
-        <v>1165.4301</v>
-      </c>
-      <c r="E31" s="496">
-        <v>42474</v>
-      </c>
-      <c r="F31" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G31" s="410">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H31" s="241">
-        <v>0.11654299999999999</v>
-      </c>
-      <c r="I31" s="410">
-        <v>0.6</v>
-      </c>
-      <c r="J31" s="241">
-        <f t="shared" si="2"/>
-        <v>67.128767999999994</v>
-      </c>
-      <c r="K31" s="241">
-        <f t="shared" si="0"/>
-        <v>5.7599995057618633E-2</v>
-      </c>
-      <c r="L31" s="415">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M31" s="497">
-        <f t="shared" si="4"/>
-        <v>1.2836850417878663E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="398" t="s">
-        <v>598</v>
-      </c>
-      <c r="B32" s="375" t="s">
-        <v>599</v>
-      </c>
-      <c r="C32" s="418" t="s">
-        <v>628</v>
-      </c>
-      <c r="D32" s="400">
-        <v>21751.5</v>
-      </c>
-      <c r="E32" s="494">
-        <v>42449</v>
-      </c>
-      <c r="F32" s="375" t="str">
-        <f>IF(A32="Speich",$B$9,IF(A32="Friess",$B$7,IF(A32="Mathis",$B$8)))</f>
-        <v>MG</v>
-      </c>
-      <c r="G32" s="400">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H32" s="401">
-        <v>2.1751499999999999</v>
-      </c>
-      <c r="I32" s="402">
-        <f>IF(A32="Speich",$C$9,IF(A32="Friess",$C$7,IF(A32="Mathis",$C$8)))</f>
-        <v>2</v>
-      </c>
-      <c r="J32" s="401">
-        <f t="shared" si="2"/>
-        <v>4176.2879999999996</v>
-      </c>
-      <c r="K32" s="401">
-        <f t="shared" si="0"/>
-        <v>0.19199999999999998</v>
-      </c>
-      <c r="L32" s="403">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M32" s="495">
-        <f t="shared" si="4"/>
-        <v>7.9862011407660041E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="398" t="s">
-        <v>598</v>
-      </c>
-      <c r="B33" s="375" t="s">
-        <v>599</v>
-      </c>
-      <c r="C33" s="399" t="s">
-        <v>629</v>
-      </c>
-      <c r="D33" s="400">
-        <v>15022.6</v>
-      </c>
-      <c r="E33" s="494">
-        <v>42449</v>
-      </c>
-      <c r="F33" s="375" t="str">
-        <f>IF(A33="Speich",$B$9,IF(A33="Friess",$B$7,IF(A33="Mathis",$B$8)))</f>
-        <v>MG</v>
-      </c>
-      <c r="G33" s="400">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H33" s="401">
-        <v>1.5022599999999999</v>
-      </c>
-      <c r="I33" s="402">
-        <f>IF(A33="Speich",$C$9,IF(A33="Friess",$C$7,IF(A33="Mathis",$C$8)))</f>
-        <v>2</v>
-      </c>
-      <c r="J33" s="401">
-        <f t="shared" si="2"/>
-        <v>2884.3391999999999</v>
-      </c>
-      <c r="K33" s="401">
-        <f t="shared" si="0"/>
-        <v>0.19199999999999998</v>
-      </c>
-      <c r="L33" s="403">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M33" s="495">
-        <f t="shared" si="4"/>
-        <v>5.515642841057921E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="398" t="s">
-        <v>779</v>
-      </c>
-      <c r="B34" s="375" t="s">
-        <v>599</v>
-      </c>
-      <c r="C34" s="399" t="s">
-        <v>631</v>
-      </c>
-      <c r="D34" s="400">
-        <v>54313.800999999999</v>
-      </c>
-      <c r="E34" s="494">
-        <f>E18</f>
-        <v>42449</v>
-      </c>
-      <c r="F34" s="375" t="str">
-        <f>IF(A34="Speich",$B$9,IF(A34="Friess",$B$7,IF(A34="Mathis*",$B$8)))</f>
-        <v>DG</v>
-      </c>
-      <c r="G34" s="400">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="H34" s="401">
-        <v>5.4313799999999999</v>
-      </c>
-      <c r="I34" s="402">
-        <f>IF(A34="Speich",$C$9,IF(A34="Friess",$C$7,IF(A34="Mathis*",$C$8)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="J34" s="401">
-        <f t="shared" si="2"/>
-        <v>10436.39667</v>
-      </c>
-      <c r="K34" s="401">
-        <f t="shared" si="0"/>
-        <v>0.19214999646222514</v>
-      </c>
-      <c r="L34" s="403">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M34" s="495">
-        <f t="shared" si="4"/>
-        <v>0.19957235466385587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="413" t="s">
-        <v>626</v>
-      </c>
-      <c r="B35" s="353" t="s">
-        <v>599</v>
-      </c>
-      <c r="C35" s="414" t="s">
-        <v>632</v>
-      </c>
-      <c r="D35" s="410">
-        <v>24869.1</v>
-      </c>
-      <c r="E35" s="496">
-        <v>42474</v>
-      </c>
-      <c r="F35" s="353" t="s">
-        <v>601</v>
-      </c>
-      <c r="G35" s="410">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H35" s="241">
-        <v>2.48691</v>
-      </c>
-      <c r="I35" s="410">
-        <v>0.6</v>
-      </c>
-      <c r="J35" s="241">
-        <f>G35*H35*I35</f>
-        <v>1432.4601599999999</v>
-      </c>
-      <c r="K35" s="241">
-        <f t="shared" si="0"/>
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="L35" s="415">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M35" s="497">
-        <f t="shared" si="4"/>
-        <v>2.7392543243889914E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="419" t="s">
-        <v>598</v>
-      </c>
-      <c r="B36" s="420" t="s">
-        <v>596</v>
-      </c>
-      <c r="C36" s="421" t="s">
-        <v>633</v>
-      </c>
-      <c r="D36" s="422">
-        <v>15697.6</v>
-      </c>
-      <c r="E36" s="500">
-        <v>42449</v>
-      </c>
-      <c r="F36" s="420" t="str">
-        <f>IF(A36="Speich",$B$9,IF(A36="Friess",$B$7,IF(A36="Mathis",$B$8)))</f>
-        <v>MG</v>
-      </c>
-      <c r="G36" s="422">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H36" s="423">
-        <v>1.56976</v>
-      </c>
-      <c r="I36" s="424">
-        <f>IF(F36="MG",$D$4,IF(F36="DG",D3))</f>
-        <v>2</v>
-      </c>
-      <c r="J36" s="423">
-        <f t="shared" si="2"/>
-        <v>3013.9392000000003</v>
-      </c>
-      <c r="K36" s="423">
-        <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-      <c r="L36" s="425">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M36" s="501">
-        <f t="shared" si="4"/>
-        <v>5.7634733709072225E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="431" t="s">
-        <v>784</v>
-      </c>
-      <c r="B37" s="432" t="s">
-        <v>596</v>
-      </c>
-      <c r="C37" s="433" t="s">
-        <v>637</v>
-      </c>
-      <c r="D37" s="434">
-        <v>6040.2201999999997</v>
-      </c>
-      <c r="E37" s="502">
-        <v>42527</v>
-      </c>
-      <c r="F37" s="432" t="str">
-        <f>IF(A37="Speich***",$B$9,IF(A37="Friess",$B$7,IF(A37="Mathis",$B$8)))</f>
-        <v>DG</v>
-      </c>
-      <c r="G37" s="434">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="H37" s="435">
-        <v>0.60402199999999995</v>
-      </c>
-      <c r="I37" s="436">
-        <f>IF(A37="Speich***",$C$9,IF(A37="Friess",$C$7,IF(A37="Mathis",$C$8)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="J37" s="435">
-        <f t="shared" si="2"/>
-        <v>1160.628273</v>
-      </c>
-      <c r="K37" s="435">
-        <f t="shared" si="0"/>
-        <v>0.19214999363764917</v>
-      </c>
-      <c r="L37" s="437">
-        <f t="shared" si="3"/>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="M37" s="503">
-        <f t="shared" si="4"/>
-        <v>2.2194376532073165E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="448"/>
-      <c r="B38" s="448"/>
-      <c r="C38" s="448"/>
-      <c r="D38" s="467">
-        <f>SUM(D17:D37)</f>
-        <v>331314.2932999999</v>
-      </c>
-      <c r="E38" s="453"/>
-      <c r="F38" s="459"/>
-      <c r="G38" s="454"/>
-      <c r="H38" s="459"/>
-      <c r="I38" s="483" t="s">
-        <v>640</v>
-      </c>
-      <c r="J38" s="484">
-        <f>SUM(J17:J37)</f>
-        <v>52293.799347000007</v>
-      </c>
-      <c r="K38" s="484"/>
-      <c r="L38" s="459"/>
-      <c r="M38" s="485"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="448"/>
-      <c r="B39" s="448"/>
-      <c r="C39" s="448"/>
-      <c r="D39" s="448"/>
-      <c r="E39" s="453"/>
-      <c r="F39" s="459"/>
-      <c r="G39" s="454"/>
-      <c r="H39" s="489"/>
-      <c r="I39" s="489" t="s">
-        <v>641</v>
-      </c>
-      <c r="J39" s="454"/>
-      <c r="K39" s="454"/>
-      <c r="L39" s="504"/>
-      <c r="M39" s="505"/>
-    </row>
-    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="448"/>
-      <c r="B40" s="448"/>
-      <c r="C40" s="448"/>
-      <c r="D40" s="448"/>
-      <c r="E40" s="453"/>
-      <c r="F40" s="459"/>
-      <c r="G40" s="459"/>
-      <c r="H40" s="459"/>
-      <c r="I40" s="454"/>
-      <c r="J40" s="454"/>
-      <c r="K40" s="459"/>
-      <c r="L40" s="459"/>
-      <c r="M40" s="485"/>
-    </row>
-    <row r="41" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="468" t="s">
-        <v>743</v>
-      </c>
-      <c r="B41" s="463"/>
-      <c r="C41" s="463"/>
-      <c r="D41" s="463"/>
-      <c r="E41" s="468"/>
-      <c r="F41" s="469"/>
-      <c r="G41" s="463"/>
-      <c r="H41" s="463"/>
-      <c r="I41" s="463"/>
-      <c r="J41" s="463"/>
-      <c r="K41" s="463"/>
-      <c r="L41" s="463"/>
-      <c r="M41" s="464"/>
-    </row>
-    <row r="42" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="468" t="s">
-        <v>783</v>
-      </c>
-      <c r="B42" s="463"/>
-      <c r="C42" s="463"/>
-      <c r="D42" s="463"/>
-      <c r="E42" s="468"/>
-      <c r="F42" s="469"/>
-      <c r="G42" s="463"/>
-      <c r="H42" s="463"/>
-      <c r="I42" s="463"/>
-      <c r="J42" s="463"/>
-      <c r="K42" s="463"/>
-      <c r="L42" s="463"/>
-      <c r="M42" s="464"/>
-    </row>
-    <row r="43" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="456" t="s">
-        <v>742</v>
-      </c>
-      <c r="B43" s="470"/>
-      <c r="C43" s="470"/>
-      <c r="D43" s="471"/>
-      <c r="E43" s="456"/>
-      <c r="F43" s="470"/>
-      <c r="G43" s="470"/>
-      <c r="H43" s="470"/>
-      <c r="I43" s="457"/>
-      <c r="J43" s="457"/>
-      <c r="K43" s="457"/>
-      <c r="L43" s="457"/>
-      <c r="M43" s="458"/>
-    </row>
-    <row r="44" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="460" t="s">
-        <v>643</v>
-      </c>
-      <c r="B45" s="447"/>
-      <c r="C45" s="447"/>
-      <c r="D45" s="447"/>
-      <c r="E45" s="447"/>
-      <c r="F45" s="447"/>
-      <c r="G45" s="447"/>
-      <c r="H45" s="447"/>
-      <c r="I45" s="506"/>
-      <c r="J45" s="506"/>
-      <c r="K45" s="447"/>
-      <c r="L45" s="447"/>
-      <c r="M45" s="461"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="453" t="s">
-        <v>786</v>
-      </c>
-      <c r="B46" s="483">
-        <v>-33.234000000000002</v>
-      </c>
-      <c r="C46" s="459"/>
-      <c r="D46" s="459"/>
-      <c r="E46" s="459"/>
-      <c r="F46" s="459"/>
-      <c r="G46" s="459"/>
-      <c r="H46" s="459"/>
-      <c r="I46" s="454"/>
-      <c r="J46" s="454"/>
-      <c r="K46" s="459"/>
-      <c r="L46" s="459"/>
-      <c r="M46" s="485"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="453" t="s">
-        <v>787</v>
-      </c>
-      <c r="B47" s="483">
-        <v>-32.963999999999999</v>
-      </c>
-      <c r="C47" s="459"/>
-      <c r="D47" s="459"/>
-      <c r="E47" s="459"/>
-      <c r="F47" s="459"/>
-      <c r="G47" s="459"/>
-      <c r="H47" s="459"/>
-      <c r="I47" s="454"/>
-      <c r="J47" s="454"/>
-      <c r="K47" s="459"/>
-      <c r="L47" s="459"/>
-      <c r="M47" s="485"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="453" t="s">
-        <v>788</v>
-      </c>
-      <c r="B48" s="483">
-        <v>-32.679000000000002</v>
-      </c>
-      <c r="C48" s="459"/>
-      <c r="D48" s="459"/>
-      <c r="E48" s="459"/>
-      <c r="F48" s="459"/>
-      <c r="G48" s="459"/>
-      <c r="H48" s="459"/>
-      <c r="I48" s="454"/>
-      <c r="J48" s="454"/>
-      <c r="K48" s="459"/>
-      <c r="L48" s="459"/>
-      <c r="M48" s="485"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="453" t="s">
-        <v>789</v>
-      </c>
-      <c r="B49" s="483">
-        <v>-32.697000000000003</v>
-      </c>
-      <c r="C49" s="459"/>
-      <c r="D49" s="459"/>
-      <c r="E49" s="459"/>
-      <c r="F49" s="459"/>
-      <c r="G49" s="459"/>
-      <c r="H49" s="459"/>
-      <c r="I49" s="454"/>
-      <c r="J49" s="454"/>
-      <c r="K49" s="459"/>
-      <c r="L49" s="459"/>
-      <c r="M49" s="485"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="453" t="s">
-        <v>790</v>
-      </c>
-      <c r="B50" s="483">
-        <v>-32.427</v>
-      </c>
-      <c r="C50" s="459"/>
-      <c r="D50" s="459"/>
-      <c r="E50" s="459"/>
-      <c r="F50" s="459"/>
-      <c r="G50" s="459"/>
-      <c r="H50" s="459"/>
-      <c r="I50" s="454"/>
-      <c r="J50" s="454"/>
-      <c r="K50" s="459"/>
-      <c r="L50" s="459"/>
-      <c r="M50" s="485"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="453" t="s">
-        <v>791</v>
-      </c>
-      <c r="B51" s="483">
-        <v>-32.283999999999999</v>
-      </c>
-      <c r="C51" s="459"/>
-      <c r="D51" s="459"/>
-      <c r="E51" s="459"/>
-      <c r="F51" s="459"/>
-      <c r="G51" s="459"/>
-      <c r="H51" s="459"/>
-      <c r="I51" s="454"/>
-      <c r="J51" s="454"/>
-      <c r="K51" s="459"/>
-      <c r="L51" s="459"/>
-      <c r="M51" s="485"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="453" t="s">
-        <v>792</v>
-      </c>
-      <c r="B52" s="483">
-        <v>-32.448</v>
-      </c>
-      <c r="C52" s="459"/>
-      <c r="D52" s="459"/>
-      <c r="E52" s="459"/>
-      <c r="F52" s="459"/>
-      <c r="G52" s="459"/>
-      <c r="H52" s="459"/>
-      <c r="I52" s="454"/>
-      <c r="J52" s="454"/>
-      <c r="K52" s="459"/>
-      <c r="L52" s="459"/>
-      <c r="M52" s="485"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="453" t="s">
-        <v>793</v>
-      </c>
-      <c r="B53" s="483">
-        <v>-32.317999999999998</v>
-      </c>
-      <c r="C53" s="459"/>
-      <c r="D53" s="459"/>
-      <c r="E53" s="459"/>
-      <c r="F53" s="459"/>
-      <c r="G53" s="459"/>
-      <c r="H53" s="459"/>
-      <c r="I53" s="454"/>
-      <c r="J53" s="454"/>
-      <c r="K53" s="459"/>
-      <c r="L53" s="459"/>
-      <c r="M53" s="485"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="453" t="s">
-        <v>794</v>
-      </c>
-      <c r="B54" s="483">
-        <v>-32.152999999999999</v>
-      </c>
-      <c r="C54" s="459"/>
-      <c r="D54" s="459"/>
-      <c r="E54" s="459"/>
-      <c r="F54" s="459"/>
-      <c r="G54" s="459"/>
-      <c r="H54" s="459"/>
-      <c r="I54" s="454"/>
-      <c r="J54" s="454"/>
-      <c r="K54" s="459"/>
-      <c r="L54" s="459"/>
-      <c r="M54" s="485"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="453" t="s">
-        <v>795</v>
-      </c>
-      <c r="B55" s="483">
-        <v>-31.581</v>
-      </c>
-      <c r="C55" s="459"/>
-      <c r="D55" s="459"/>
-      <c r="E55" s="459"/>
-      <c r="F55" s="459"/>
-      <c r="G55" s="459"/>
-      <c r="H55" s="459"/>
-      <c r="I55" s="454"/>
-      <c r="J55" s="454"/>
-      <c r="K55" s="459"/>
-      <c r="L55" s="459"/>
-      <c r="M55" s="485"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="453" t="s">
-        <v>796</v>
-      </c>
-      <c r="B56" s="483">
-        <v>-31.687999999999999</v>
-      </c>
-      <c r="C56" s="459"/>
-      <c r="D56" s="459"/>
-      <c r="E56" s="459"/>
-      <c r="F56" s="459"/>
-      <c r="G56" s="459"/>
-      <c r="H56" s="459"/>
-      <c r="I56" s="454"/>
-      <c r="J56" s="454"/>
-      <c r="K56" s="459"/>
-      <c r="L56" s="459"/>
-      <c r="M56" s="485"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="453" t="s">
-        <v>797</v>
-      </c>
-      <c r="B57" s="483">
-        <v>-31.645</v>
-      </c>
-      <c r="C57" s="459"/>
-      <c r="D57" s="459"/>
-      <c r="E57" s="459"/>
-      <c r="F57" s="459"/>
-      <c r="G57" s="459"/>
-      <c r="H57" s="459"/>
-      <c r="I57" s="454"/>
-      <c r="J57" s="454"/>
-      <c r="K57" s="459"/>
-      <c r="L57" s="459"/>
-      <c r="M57" s="485"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="507" t="s">
-        <v>671</v>
-      </c>
-      <c r="B58" s="484">
-        <f>AVERAGE(B46:B57)</f>
-        <v>-32.343166666666669</v>
-      </c>
-      <c r="C58" s="459"/>
-      <c r="D58" s="459"/>
-      <c r="E58" s="459"/>
-      <c r="F58" s="459"/>
-      <c r="G58" s="459"/>
-      <c r="H58" s="459"/>
-      <c r="I58" s="454"/>
-      <c r="J58" s="454"/>
-      <c r="K58" s="459"/>
-      <c r="L58" s="459"/>
-      <c r="M58" s="485"/>
-    </row>
-    <row r="59" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="450" t="s">
-        <v>803</v>
-      </c>
-      <c r="B59" s="510">
-        <f>STDEVA(B46:B57)</f>
-        <v>0.51986831083079243</v>
-      </c>
-      <c r="C59" s="470"/>
-      <c r="D59" s="470"/>
-      <c r="E59" s="470"/>
-      <c r="F59" s="470"/>
-      <c r="G59" s="470"/>
-      <c r="H59" s="470"/>
-      <c r="I59" s="457"/>
-      <c r="J59" s="457"/>
-      <c r="K59" s="470"/>
-      <c r="L59" s="470"/>
-      <c r="M59" s="509"/>
-    </row>
-    <row r="60" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="453"/>
-      <c r="B60" s="483"/>
-      <c r="C60" s="459"/>
-      <c r="D60" s="459"/>
-      <c r="E60" s="459"/>
-      <c r="F60" s="459"/>
-      <c r="G60" s="459"/>
-      <c r="H60" s="459"/>
-      <c r="I60" s="454"/>
-      <c r="J60" s="454"/>
-      <c r="K60" s="459"/>
-      <c r="L60" s="459"/>
-      <c r="M60" s="485"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="446" t="s">
-        <v>798</v>
-      </c>
-      <c r="B61" s="511">
-        <v>-32.375</v>
-      </c>
-      <c r="C61" s="447"/>
-      <c r="D61" s="447"/>
-      <c r="E61" s="447"/>
-      <c r="F61" s="447"/>
-      <c r="G61" s="447"/>
-      <c r="H61" s="447"/>
-      <c r="I61" s="506"/>
-      <c r="J61" s="506"/>
-      <c r="K61" s="447"/>
-      <c r="L61" s="447"/>
-      <c r="M61" s="461"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="453" t="s">
-        <v>799</v>
-      </c>
-      <c r="B62" s="483">
-        <v>-32.651000000000003</v>
-      </c>
-      <c r="C62" s="459"/>
-      <c r="D62" s="459"/>
-      <c r="E62" s="459"/>
-      <c r="F62" s="459"/>
-      <c r="G62" s="459"/>
-      <c r="H62" s="459"/>
-      <c r="I62" s="454"/>
-      <c r="J62" s="454"/>
-      <c r="K62" s="459"/>
-      <c r="L62" s="459"/>
-      <c r="M62" s="485"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="453" t="s">
-        <v>800</v>
-      </c>
-      <c r="B63" s="483">
-        <v>-31.660999999999998</v>
-      </c>
-      <c r="C63" s="459"/>
-      <c r="D63" s="459"/>
-      <c r="E63" s="459"/>
-      <c r="F63" s="459"/>
-      <c r="G63" s="459"/>
-      <c r="H63" s="459"/>
-      <c r="I63" s="454"/>
-      <c r="J63" s="454"/>
-      <c r="K63" s="459"/>
-      <c r="L63" s="459"/>
-      <c r="M63" s="485"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="453" t="s">
-        <v>801</v>
-      </c>
-      <c r="B64" s="483">
-        <v>-31.782999999999998</v>
-      </c>
-      <c r="C64" s="459"/>
-      <c r="D64" s="459"/>
-      <c r="E64" s="459"/>
-      <c r="F64" s="459"/>
-      <c r="G64" s="459"/>
-      <c r="H64" s="459"/>
-      <c r="I64" s="454"/>
-      <c r="J64" s="454"/>
-      <c r="K64" s="459"/>
-      <c r="L64" s="459"/>
-      <c r="M64" s="485"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="453" t="s">
-        <v>802</v>
-      </c>
-      <c r="B65" s="483">
-        <v>-31.959</v>
-      </c>
-      <c r="C65" s="459"/>
-      <c r="D65" s="459"/>
-      <c r="E65" s="459"/>
-      <c r="F65" s="459"/>
-      <c r="G65" s="459"/>
-      <c r="H65" s="459"/>
-      <c r="I65" s="454"/>
-      <c r="J65" s="454"/>
-      <c r="K65" s="459"/>
-      <c r="L65" s="459"/>
-      <c r="M65" s="485"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="507" t="s">
-        <v>694</v>
-      </c>
-      <c r="B66" s="484">
-        <f>AVERAGE(B61:B65)</f>
-        <v>-32.085799999999999</v>
-      </c>
-      <c r="C66" s="459"/>
-      <c r="D66" s="459"/>
-      <c r="E66" s="459"/>
-      <c r="F66" s="459"/>
-      <c r="G66" s="459"/>
-      <c r="H66" s="459"/>
-      <c r="I66" s="454"/>
-      <c r="J66" s="454"/>
-      <c r="K66" s="459"/>
-      <c r="L66" s="459"/>
-      <c r="M66" s="485"/>
-    </row>
-    <row r="67" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="450" t="s">
-        <v>804</v>
-      </c>
-      <c r="B67" s="510">
-        <f>STDEVA(B61:B65)</f>
-        <v>0.4157249090444326</v>
-      </c>
-      <c r="C67" s="470"/>
-      <c r="D67" s="470"/>
-      <c r="E67" s="470"/>
-      <c r="F67" s="470"/>
-      <c r="G67" s="470"/>
-      <c r="H67" s="470"/>
-      <c r="I67" s="457"/>
-      <c r="J67" s="457"/>
-      <c r="K67" s="470"/>
-      <c r="L67" s="470"/>
-      <c r="M67" s="509"/>
-    </row>
-    <row r="68" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="453"/>
-      <c r="B68" s="459"/>
-      <c r="C68" s="459"/>
-      <c r="D68" s="459"/>
-      <c r="E68" s="459"/>
-      <c r="F68" s="459"/>
-      <c r="G68" s="459"/>
-      <c r="H68" s="459"/>
-      <c r="I68" s="454"/>
-      <c r="J68" s="454"/>
-      <c r="K68" s="459"/>
-      <c r="L68" s="459"/>
-      <c r="M68" s="485"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="460" t="s">
-        <v>805</v>
-      </c>
-      <c r="B69" s="512">
-        <f>AVERAGE(B46:B57,B61:B65)</f>
-        <v>-32.267470588235291</v>
-      </c>
-      <c r="C69" s="447"/>
-      <c r="D69" s="447"/>
-      <c r="E69" s="447"/>
-      <c r="F69" s="447"/>
-      <c r="G69" s="447"/>
-      <c r="H69" s="447"/>
-      <c r="I69" s="506"/>
-      <c r="J69" s="506"/>
-      <c r="K69" s="447"/>
-      <c r="L69" s="447"/>
-      <c r="M69" s="461"/>
-    </row>
-    <row r="70" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="450" t="s">
-        <v>806</v>
-      </c>
-      <c r="B70" s="508">
-        <f>STDEVA(B46:B57,B61:B65)</f>
-        <v>0.49358270807017068</v>
-      </c>
-      <c r="C70" s="470"/>
-      <c r="D70" s="470"/>
-      <c r="E70" s="470"/>
-      <c r="F70" s="470"/>
-      <c r="G70" s="470"/>
-      <c r="H70" s="470"/>
-      <c r="I70" s="457"/>
-      <c r="J70" s="457"/>
-      <c r="K70" s="470"/>
-      <c r="L70" s="470"/>
-      <c r="M70" s="509"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA120"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" style="49" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" customWidth="1"/>
-    <col min="20" max="20" width="11.796875" customWidth="1"/>
-    <col min="21" max="21" width="12.796875" customWidth="1"/>
-    <col min="22" max="22" width="10.796875" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="13.19921875" customWidth="1"/>
-    <col min="27" max="27" width="11.796875" customWidth="1"/>
-    <col min="28" max="28" width="17.19921875" customWidth="1"/>
-    <col min="29" max="29" width="12.3984375" customWidth="1"/>
-    <col min="30" max="33" width="17.19921875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="33" width="17.140625" customWidth="1"/>
     <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="36" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.796875" customWidth="1"/>
-    <col min="41" max="41" width="16.19921875" customWidth="1"/>
-    <col min="42" max="42" width="22.796875" customWidth="1"/>
-    <col min="43" max="43" width="27.796875" customWidth="1"/>
-    <col min="44" max="44" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.19921875" customWidth="1"/>
+    <col min="35" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.85546875" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" customWidth="1"/>
+    <col min="42" max="42" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.140625" customWidth="1"/>
     <col min="48" max="48" width="5" customWidth="1"/>
-    <col min="49" max="49" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="17" customWidth="1"/>
-    <col min="53" max="53" width="15.3984375" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="541" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B1" s="447"/>
       <c r="C1" s="536" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1" s="537"/>
       <c r="E1" s="448"/>
@@ -50704,7 +48763,7 @@
       <c r="T1" s="448"/>
       <c r="U1" s="448"/>
     </row>
-    <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="542"/>
       <c r="B2" s="451" t="s">
         <v>744</v>
@@ -50764,7 +48823,7 @@
       <c r="T3" s="448"/>
       <c r="U3" s="448"/>
     </row>
-    <row r="4" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="456" t="s">
         <v>746</v>
       </c>
@@ -50795,7 +48854,7 @@
       <c r="T4" s="448"/>
       <c r="U4" s="448"/>
     </row>
-    <row r="5" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="453"/>
       <c r="B5" s="459"/>
       <c r="C5" s="459"/>
@@ -50820,7 +48879,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="460" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B6" s="447"/>
       <c r="C6" s="461"/>
@@ -50843,7 +48902,7 @@
       <c r="T6" s="448"/>
       <c r="U6" s="448"/>
     </row>
-    <row r="7" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="376" t="s">
         <v>595</v>
       </c>
@@ -50898,7 +48957,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="460" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B9" s="447"/>
       <c r="C9" s="461"/>
@@ -50956,7 +49015,7 @@
         <v>630</v>
       </c>
       <c r="B11" s="375" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C11" s="379">
         <f>IF(B11="MG",$C$4,$D$4)</f>
@@ -51004,7 +49063,7 @@
       <c r="T12" s="448"/>
       <c r="U12" s="448"/>
     </row>
-    <row r="13" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="448"/>
       <c r="B13" s="448"/>
       <c r="C13" s="448"/>
@@ -51027,9 +49086,9 @@
       <c r="T13" s="448"/>
       <c r="U13" s="448"/>
     </row>
-    <row r="14" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="462" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B14" s="463"/>
       <c r="C14" s="464"/>
@@ -51052,7 +49111,7 @@
       <c r="T14" s="448"/>
       <c r="U14" s="448"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="465" t="s">
         <v>564</v>
       </c>
@@ -51082,15 +49141,15 @@
       <c r="T15" s="448"/>
       <c r="U15" s="448"/>
     </row>
-    <row r="16" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="456" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B16" s="457">
         <v>0.01</v>
       </c>
       <c r="C16" s="452" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D16" s="448"/>
       <c r="E16" s="448"/>
@@ -51111,7 +49170,7 @@
       <c r="T16" s="448"/>
       <c r="U16" s="448"/>
     </row>
-    <row r="17" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="448"/>
       <c r="B17" s="448"/>
       <c r="D17" s="448"/>
@@ -51137,7 +49196,7 @@
       <c r="A18" s="448"/>
       <c r="B18" s="448"/>
       <c r="C18" s="381" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E18" s="538" t="s">
         <v>566</v>
@@ -51161,7 +49220,7 @@
       <c r="T18" s="548"/>
       <c r="U18" s="549"/>
       <c r="W18" s="550" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="X18" s="551"/>
       <c r="AB18" s="218" t="s">
@@ -51173,7 +49232,7 @@
       <c r="AF18" s="220"/>
       <c r="AG18" s="220"/>
       <c r="AH18" s="220" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AP18" s="543"/>
       <c r="AQ18" s="543"/>
@@ -51188,7 +49247,7 @@
       <c r="AY18" s="545"/>
       <c r="AZ18" s="546"/>
     </row>
-    <row r="19" spans="1:53" s="100" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" s="100" customFormat="1" ht="45.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="221" t="s">
         <v>569</v>
       </c>
@@ -51278,7 +49337,7 @@
         <v>594</v>
       </c>
       <c r="AH19" s="225" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AJ19" s="100" t="s">
         <v>758</v>
@@ -51321,7 +49380,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="386" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B20" s="387" t="s">
         <v>596</v>
@@ -51600,7 +49659,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="409" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B22" s="353" t="s">
         <v>596</v>
@@ -52021,7 +50080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="413" t="s">
         <v>606</v>
       </c>
@@ -52294,7 +50353,7 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B27" s="353" t="s">
         <v>596</v>
@@ -52560,7 +50619,7 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="409" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B29" s="353" t="s">
         <v>596</v>
@@ -52667,7 +50726,7 @@
       <c r="AN29" s="237"/>
       <c r="AO29" s="237"/>
       <c r="AP29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AQ29" s="49">
         <v>9306</v>
@@ -52678,7 +50737,7 @@
       <c r="AU29" s="238"/>
       <c r="AV29" s="238"/>
       <c r="AW29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AX29" s="367">
         <v>5267.8990000000003</v>
@@ -52822,7 +50881,7 @@
       <c r="AN30" s="231"/>
       <c r="AO30" s="237"/>
       <c r="AP30" s="254" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AR30" s="227"/>
       <c r="AS30" s="227"/>
@@ -52830,7 +50889,7 @@
       <c r="AU30" s="227"/>
       <c r="AV30" s="227"/>
       <c r="AW30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AX30" s="227"/>
       <c r="AY30" s="227"/>
@@ -52970,7 +51029,7 @@
       <c r="AU31" s="238"/>
       <c r="AV31" s="238"/>
       <c r="AW31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AX31" s="352">
         <f>AX29/$BA$29</f>
@@ -52985,7 +51044,7 @@
         <v>0.2755991838064159</v>
       </c>
       <c r="BA31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
@@ -53135,12 +51194,12 @@
         <v>0.17645711983772852</v>
       </c>
       <c r="BA32" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="409" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B33" s="353" t="s">
         <v>596</v>
@@ -53264,7 +51323,7 @@
       <c r="AU33" s="238"/>
       <c r="AV33" s="238"/>
     </row>
-    <row r="34" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="413" t="s">
         <v>626</v>
       </c>
@@ -53532,7 +51591,7 @@
       <c r="AU35" s="238"/>
       <c r="AV35" s="238"/>
       <c r="AW35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AX35" s="308">
         <f>(AX29+AY29+AZ29)/AW27</f>
@@ -53672,7 +51731,7 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="398" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B37" s="375" t="s">
         <v>599</v>
@@ -53807,7 +51866,7 @@
       <c r="AU37" s="238"/>
       <c r="AV37" s="238"/>
     </row>
-    <row r="38" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="413" t="s">
         <v>626</v>
       </c>
@@ -54010,9 +52069,9 @@
       <c r="AP39" s="238"/>
       <c r="AQ39" s="49"/>
     </row>
-    <row r="40" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="431" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B40" s="432" t="s">
         <v>596</v>
@@ -54232,7 +52291,7 @@
       </c>
       <c r="AO42" s="231"/>
     </row>
-    <row r="43" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="448"/>
       <c r="B43" s="448"/>
       <c r="C43" s="448"/>
@@ -54296,7 +52355,7 @@
         <v>0.43808413383090583</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="373" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" s="373" customFormat="1" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="468" t="s">
         <v>743</v>
       </c>
@@ -54348,12 +52407,12 @@
         <v>250872.13280000002</v>
       </c>
       <c r="AK44" s="373" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="468" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B45" s="463"/>
       <c r="C45" s="463"/>
@@ -54396,7 +52455,7 @@
       <c r="AG45" s="231"/>
       <c r="AH45" s="231"/>
     </row>
-    <row r="46" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="456" t="s">
         <v>742</v>
       </c>
@@ -54441,7 +52500,7 @@
       <c r="AG46" s="259"/>
       <c r="AH46" s="259"/>
     </row>
-    <row r="47" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AA47" s="231"/>
       <c r="AB47" s="231"/>
       <c r="AC47" s="259"/>
@@ -54476,7 +52535,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" s="453" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B49" s="483">
         <v>-33.234000000000002</v>
@@ -54495,7 +52554,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" s="453" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B50" s="483">
         <v>-32.963999999999999</v>
@@ -54514,7 +52573,7 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" s="453" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B51" s="483">
         <v>-32.679000000000002</v>
@@ -54533,7 +52592,7 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" s="453" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B52" s="483">
         <v>-32.697000000000003</v>
@@ -54552,7 +52611,7 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" s="453" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B53" s="483">
         <v>-32.427</v>
@@ -54571,7 +52630,7 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" s="453" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B54" s="483">
         <v>-32.283999999999999</v>
@@ -54590,7 +52649,7 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" s="453" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B55" s="483">
         <v>-32.448</v>
@@ -54609,7 +52668,7 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" s="453" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B56" s="483">
         <v>-32.317999999999998</v>
@@ -54626,9 +52685,9 @@
       <c r="L56" s="459"/>
       <c r="M56" s="485"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="453" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B57" s="483">
         <v>-32.152999999999999</v>
@@ -54645,9 +52704,9 @@
       <c r="L57" s="459"/>
       <c r="M57" s="485"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="453" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B58" s="483">
         <v>-31.581</v>
@@ -54664,9 +52723,9 @@
       <c r="L58" s="459"/>
       <c r="M58" s="485"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" s="453" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B59" s="483">
         <v>-31.687999999999999</v>
@@ -54683,9 +52742,9 @@
       <c r="L59" s="459"/>
       <c r="M59" s="485"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="453" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B60" s="483">
         <v>-31.645</v>
@@ -54702,7 +52761,7 @@
       <c r="L60" s="459"/>
       <c r="M60" s="485"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="507" t="s">
         <v>671</v>
       </c>
@@ -54722,9 +52781,9 @@
       <c r="L61" s="459"/>
       <c r="M61" s="485"/>
     </row>
-    <row r="62" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="450" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B62" s="510">
         <f>STDEVA(B49:B60)</f>
@@ -54742,7 +52801,7 @@
       <c r="L62" s="470"/>
       <c r="M62" s="509"/>
     </row>
-    <row r="63" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="453"/>
       <c r="B63" s="483"/>
       <c r="C63" s="459"/>
@@ -54757,9 +52816,9 @@
       <c r="L63" s="459"/>
       <c r="M63" s="485"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="446" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B64" s="511">
         <v>-32.375</v>
@@ -54779,9 +52838,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="453" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B65" s="483">
         <v>-32.651000000000003</v>
@@ -54801,9 +52860,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="453" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B66" s="483">
         <v>-31.660999999999998</v>
@@ -54823,9 +52882,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="453" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B67" s="483">
         <v>-31.782999999999998</v>
@@ -54845,9 +52904,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="453" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B68" s="483">
         <v>-31.959</v>
@@ -54867,7 +52926,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="507" t="s">
         <v>694</v>
       </c>
@@ -54890,9 +52949,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="450" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B70" s="510">
         <f>STDEVA(B64:B68)</f>
@@ -54913,7 +52972,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="453"/>
       <c r="B71" s="459"/>
       <c r="C71" s="459"/>
@@ -54931,9 +52990,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="460" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B72" s="512">
         <f>AVERAGE(B49:B60,B64:B68)</f>
@@ -54954,9 +53013,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="450" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B73" s="508">
         <f>STDEVA(B49:B60,B64:B68)</f>
@@ -54977,22 +53036,22 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY74">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY75">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY76">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="O77" s="261" t="s">
         <v>644</v>
       </c>
@@ -55010,7 +53069,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>643</v>
       </c>
@@ -55043,7 +53102,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="266" t="s">
         <v>647</v>
       </c>
@@ -55084,7 +53143,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="266" t="s">
         <v>647</v>
       </c>
@@ -55125,7 +53184,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="266" t="s">
         <v>647</v>
       </c>
@@ -55163,7 +53222,7 @@
       <c r="AE81" s="262"/>
       <c r="AF81" s="262"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="266" t="s">
         <v>647</v>
       </c>
@@ -55196,7 +53255,7 @@
       <c r="AE82" s="262"/>
       <c r="AF82" s="262"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="266" t="s">
         <v>647</v>
       </c>
@@ -55240,7 +53299,7 @@
       <c r="AE83" s="262"/>
       <c r="AF83" s="262"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="266" t="s">
         <v>647</v>
       </c>
@@ -55291,7 +53350,7 @@
       <c r="AE84" s="262"/>
       <c r="AF84" s="262"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="266" t="s">
         <v>658</v>
       </c>
@@ -55346,7 +53405,7 @@
       <c r="AE85" s="262"/>
       <c r="AF85" s="262"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="266" t="s">
         <v>658</v>
       </c>
@@ -55383,7 +53442,7 @@
       <c r="AE86" s="262"/>
       <c r="AF86" s="262"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="266" t="s">
         <v>658</v>
       </c>
@@ -55428,7 +53487,7 @@
       <c r="AE87" s="262"/>
       <c r="AF87" s="262"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="266" t="s">
         <v>658</v>
       </c>
@@ -55483,7 +53542,7 @@
       <c r="AE88" s="262"/>
       <c r="AF88" s="262"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="266" t="s">
         <v>658</v>
       </c>
@@ -55531,7 +53590,7 @@
       <c r="AE89" s="262"/>
       <c r="AF89" s="262"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="275" t="s">
         <v>658</v>
       </c>
@@ -55567,7 +53626,7 @@
       <c r="AE90" s="262"/>
       <c r="AF90" s="262"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="276" t="s">
         <v>671</v>
       </c>
@@ -55607,7 +53666,7 @@
       <c r="AE91" s="262"/>
       <c r="AF91" s="262"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D92" s="267"/>
       <c r="I92"/>
       <c r="K92" s="49"/>
@@ -55630,7 +53689,7 @@
       <c r="AE92" s="262"/>
       <c r="AF92" s="262"/>
     </row>
-    <row r="93" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="278" t="s">
         <v>675</v>
       </c>
@@ -55679,7 +53738,7 @@
       <c r="AE93" s="262"/>
       <c r="AF93" s="262"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="278" t="s">
         <v>683</v>
       </c>
@@ -55741,7 +53800,7 @@
       <c r="AE94" s="284"/>
       <c r="AF94" s="284"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="266" t="s">
         <v>687</v>
       </c>
@@ -55812,7 +53871,7 @@
       <c r="AE95" s="290"/>
       <c r="AF95" s="290"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="266" t="s">
         <v>687</v>
       </c>
@@ -55879,7 +53938,7 @@
       <c r="AE96" s="290"/>
       <c r="AF96" s="290"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="275" t="s">
         <v>687</v>
       </c>
@@ -55933,7 +53992,7 @@
       <c r="AE97" s="262"/>
       <c r="AF97" s="262"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="276" t="s">
         <v>694</v>
       </c>
@@ -55983,7 +54042,7 @@
       <c r="AE98" s="290"/>
       <c r="AF98" s="290"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O99" s="287" t="s">
         <v>226</v>
       </c>
@@ -56020,7 +54079,7 @@
       <c r="AE99" s="262"/>
       <c r="AF99" s="262"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>695</v>
       </c>
@@ -56060,7 +54119,7 @@
       <c r="AE100" s="290"/>
       <c r="AF100" s="290"/>
     </row>
-    <row r="101" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="221" t="s">
         <v>575</v>
       </c>
@@ -56118,7 +54177,7 @@
       <c r="AE101" s="290"/>
       <c r="AF101" s="290"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>601</v>
       </c>
@@ -56187,7 +54246,7 @@
       <c r="AE102" s="290"/>
       <c r="AF102" s="290"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>601</v>
       </c>
@@ -56256,7 +54315,7 @@
       <c r="AE103" s="262"/>
       <c r="AF103" s="262"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="293" t="s">
         <v>625</v>
       </c>
@@ -56322,7 +54381,7 @@
       <c r="AE104" s="290"/>
       <c r="AF104" s="290"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O105" s="287" t="s">
         <v>223</v>
       </c>
@@ -56363,7 +54422,7 @@
       <c r="AE105" s="290"/>
       <c r="AF105" s="290"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>A15</f>
         <v>Soil Density (ρ)  =</v>
@@ -56408,7 +54467,7 @@
       <c r="AE106" s="290"/>
       <c r="AF106" s="290"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O107" s="287" t="s">
         <v>261</v>
       </c>
@@ -56449,7 +54508,7 @@
       <c r="AE107" s="290"/>
       <c r="AF107" s="290"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O108" s="287" t="s">
         <v>263</v>
       </c>
@@ -56490,7 +54549,7 @@
       <c r="AE108" s="290"/>
       <c r="AF108" s="290"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O109" s="287" t="s">
         <v>265</v>
       </c>
@@ -56527,7 +54586,7 @@
       <c r="AE109" s="290"/>
       <c r="AF109" s="290"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O110" s="287"/>
       <c r="P110" s="287"/>
       <c r="Q110" s="331"/>
@@ -56555,7 +54614,7 @@
       <c r="AE110" s="290"/>
       <c r="AF110" s="290"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O111" s="287" t="s">
         <v>229</v>
       </c>
@@ -56587,7 +54646,7 @@
       <c r="AE111" s="290"/>
       <c r="AF111" s="290"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="O112" s="287" t="s">
         <v>227</v>
       </c>
@@ -56619,7 +54678,7 @@
       <c r="AE112" s="290"/>
       <c r="AF112" s="290"/>
     </row>
-    <row r="113" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="15:32" x14ac:dyDescent="0.25">
       <c r="O113" s="287" t="s">
         <v>225</v>
       </c>
@@ -56651,7 +54710,7 @@
       <c r="AE113" s="290"/>
       <c r="AF113" s="290"/>
     </row>
-    <row r="114" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="15:32" x14ac:dyDescent="0.25">
       <c r="O114" s="287" t="s">
         <v>260</v>
       </c>
@@ -56683,7 +54742,7 @@
       <c r="AE114" s="290"/>
       <c r="AF114" s="290"/>
     </row>
-    <row r="115" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="15:32" x14ac:dyDescent="0.25">
       <c r="O115" s="287" t="s">
         <v>262</v>
       </c>
@@ -56713,7 +54772,7 @@
       <c r="AE115" s="290"/>
       <c r="AF115" s="290"/>
     </row>
-    <row r="116" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="15:32" x14ac:dyDescent="0.25">
       <c r="O116" s="287" t="s">
         <v>264</v>
       </c>
@@ -56737,7 +54796,7 @@
       <c r="AE116" s="262"/>
       <c r="AF116" s="262"/>
     </row>
-    <row r="117" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="15:32" x14ac:dyDescent="0.25">
       <c r="O117" s="262"/>
       <c r="P117" s="262"/>
       <c r="Q117" s="262"/>
@@ -56757,7 +54816,7 @@
       <c r="AE117" s="262"/>
       <c r="AF117" s="262"/>
     </row>
-    <row r="118" spans="15:32" ht="105" x14ac:dyDescent="0.2">
+    <row r="118" spans="15:32" ht="90" x14ac:dyDescent="0.25">
       <c r="O118" s="295" t="s">
         <v>0</v>
       </c>
@@ -56787,7 +54846,7 @@
       <c r="AE118" s="262"/>
       <c r="AF118" s="262"/>
     </row>
-    <row r="119" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="15:32" x14ac:dyDescent="0.25">
       <c r="Q119" s="15"/>
       <c r="Z119" s="262"/>
       <c r="AA119" s="262"/>
@@ -56797,7 +54856,7 @@
       <c r="AE119" s="262"/>
       <c r="AF119" s="262"/>
     </row>
-    <row r="120" spans="15:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="15:32" x14ac:dyDescent="0.25">
       <c r="Q120" s="30" t="s">
         <v>750</v>
       </c>
@@ -56820,65 +54879,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="8" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" style="49" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" customWidth="1"/>
-    <col min="20" max="20" width="11.796875" customWidth="1"/>
-    <col min="21" max="21" width="12.796875" customWidth="1"/>
-    <col min="22" max="22" width="10.796875" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.19921875" customWidth="1"/>
-    <col min="26" max="26" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.796875" customWidth="1"/>
-    <col min="28" max="28" width="17.19921875" customWidth="1"/>
-    <col min="29" max="29" width="12.3984375" customWidth="1"/>
-    <col min="30" max="33" width="17.19921875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="26" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="33" width="17.140625" customWidth="1"/>
     <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="36" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.796875" customWidth="1"/>
-    <col min="41" max="41" width="16.19921875" customWidth="1"/>
-    <col min="42" max="42" width="22.796875" customWidth="1"/>
-    <col min="43" max="43" width="27.796875" customWidth="1"/>
-    <col min="44" max="44" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.19921875" customWidth="1"/>
+    <col min="35" max="36" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.85546875" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" customWidth="1"/>
+    <col min="42" max="42" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.140625" customWidth="1"/>
     <col min="48" max="48" width="5" customWidth="1"/>
-    <col min="49" max="49" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="17" customWidth="1"/>
-    <col min="53" max="53" width="15.3984375" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="541" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B1" s="447"/>
       <c r="C1" s="536" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1" s="537"/>
       <c r="E1" s="448"/>
@@ -56899,7 +54958,7 @@
       <c r="T1" s="448"/>
       <c r="U1" s="448"/>
     </row>
-    <row r="2" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="542"/>
       <c r="B2" s="451" t="s">
         <v>744</v>
@@ -56959,7 +55018,7 @@
       <c r="T3" s="448"/>
       <c r="U3" s="448"/>
     </row>
-    <row r="4" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="456" t="s">
         <v>746</v>
       </c>
@@ -56990,7 +55049,7 @@
       <c r="T4" s="448"/>
       <c r="U4" s="448"/>
     </row>
-    <row r="5" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="453"/>
       <c r="B5" s="459"/>
       <c r="C5" s="459"/>
@@ -57016,7 +55075,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="460" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B6" s="447"/>
       <c r="C6" s="461"/>
@@ -57040,7 +55099,7 @@
       <c r="U6" s="448"/>
       <c r="V6" s="448"/>
     </row>
-    <row r="7" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="376" t="s">
         <v>595</v>
       </c>
@@ -57097,7 +55156,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="460" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B9" s="447"/>
       <c r="C9" s="461"/>
@@ -57157,7 +55216,7 @@
         <v>630</v>
       </c>
       <c r="B11" s="375" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C11" s="379">
         <f>IF(B11="MG",$C$4,$D$4)</f>
@@ -57207,7 +55266,7 @@
       <c r="U12" s="448"/>
       <c r="V12" s="448"/>
     </row>
-    <row r="13" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="448"/>
       <c r="B13" s="448"/>
       <c r="C13" s="448"/>
@@ -57231,9 +55290,9 @@
       <c r="U13" s="448"/>
       <c r="V13" s="448"/>
     </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="462" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B14" s="463"/>
       <c r="C14" s="464"/>
@@ -57257,7 +55316,7 @@
       <c r="U14" s="448"/>
       <c r="V14" s="448"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="465" t="s">
         <v>564</v>
       </c>
@@ -57288,15 +55347,15 @@
       <c r="U15" s="448"/>
       <c r="V15" s="448"/>
     </row>
-    <row r="16" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="456" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B16" s="457">
         <v>0.01</v>
       </c>
       <c r="C16" s="452" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D16" s="515"/>
       <c r="E16" s="448"/>
@@ -57318,7 +55377,7 @@
       <c r="U16" s="448"/>
       <c r="V16" s="448"/>
     </row>
-    <row r="17" spans="1:46" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="448"/>
       <c r="B17" s="448"/>
       <c r="E17" s="448"/>
@@ -57342,7 +55401,7 @@
     </row>
     <row r="18" spans="1:46" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="554" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B18" s="555"/>
       <c r="C18" s="555"/>
@@ -57370,7 +55429,7 @@
       <c r="X18" s="220"/>
       <c r="Y18" s="220"/>
       <c r="Z18" s="220" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AH18" s="543"/>
       <c r="AI18" s="543"/>
@@ -57385,7 +55444,7 @@
       <c r="AQ18" s="545"/>
       <c r="AR18" s="546"/>
     </row>
-    <row r="19" spans="1:46" s="100" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" s="100" customFormat="1" ht="45.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="221" t="s">
         <v>569</v>
       </c>
@@ -57396,16 +55455,16 @@
         <v>719</v>
       </c>
       <c r="D19" s="221" t="s">
+        <v>824</v>
+      </c>
+      <c r="E19" s="221" t="s">
+        <v>825</v>
+      </c>
+      <c r="F19" s="221" t="s">
         <v>826</v>
       </c>
-      <c r="E19" s="221" t="s">
+      <c r="G19" s="221" t="s">
         <v>827</v>
-      </c>
-      <c r="F19" s="221" t="s">
-        <v>828</v>
-      </c>
-      <c r="G19" s="221" t="s">
-        <v>829</v>
       </c>
       <c r="H19" s="221" t="s">
         <v>573</v>
@@ -57456,7 +55515,7 @@
         <v>594</v>
       </c>
       <c r="AA19" s="225" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AC19" s="100" t="s">
         <v>758</v>
@@ -57514,7 +55573,7 @@
         <v>597</v>
       </c>
       <c r="F20" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G20" s="521">
         <v>17140.800999999999</v>
@@ -57641,7 +55700,7 @@
         <v>600</v>
       </c>
       <c r="F21" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G21" s="521">
         <v>43903.300999999999</v>
@@ -57743,7 +55802,7 @@
         <v>604</v>
       </c>
       <c r="F22" s="274" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G22" s="523">
         <v>29073.1</v>
@@ -57876,7 +55935,7 @@
         <v>607</v>
       </c>
       <c r="F23" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G23" s="523">
         <v>9452.5</v>
@@ -57988,7 +56047,7 @@
         <v>610</v>
       </c>
       <c r="F24" s="274" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G24" s="523">
         <v>8369.2001999999993</v>
@@ -58077,7 +56136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="524" t="s">
         <v>606</v>
       </c>
@@ -58094,7 +56153,7 @@
         <v>612</v>
       </c>
       <c r="F25" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G25" s="523">
         <v>13776.5</v>
@@ -58225,7 +56284,7 @@
         <v>614</v>
       </c>
       <c r="F26" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G26" s="523">
         <v>17448.599999999999</v>
@@ -58317,7 +56376,7 @@
         <v>616</v>
       </c>
       <c r="F27" s="526" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G27" s="523">
         <v>10682.2</v>
@@ -58440,7 +56499,7 @@
         <v>618</v>
       </c>
       <c r="F28" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G28" s="523">
         <v>2965.98</v>
@@ -58535,7 +56594,7 @@
         <v>619</v>
       </c>
       <c r="F29" s="274" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G29" s="523">
         <v>3360.51</v>
@@ -58603,7 +56662,7 @@
       <c r="AG29" s="237"/>
       <c r="AH29" s="237"/>
       <c r="AI29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AJ29" s="49">
         <v>9306</v>
@@ -58614,7 +56673,7 @@
       <c r="AN29" s="238"/>
       <c r="AO29" s="238"/>
       <c r="AP29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AQ29" s="367">
         <v>5267.8990000000003</v>
@@ -58647,7 +56706,7 @@
         <v>620</v>
       </c>
       <c r="F30" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G30" s="523">
         <v>5336.0801000000001</v>
@@ -58734,7 +56793,7 @@
       <c r="AG30" s="231"/>
       <c r="AH30" s="237"/>
       <c r="AI30" s="254" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AK30" s="227"/>
       <c r="AL30" s="227"/>
@@ -58742,7 +56801,7 @@
       <c r="AN30" s="227"/>
       <c r="AO30" s="227"/>
       <c r="AP30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AQ30" s="227"/>
       <c r="AR30" s="227"/>
@@ -58766,7 +56825,7 @@
         <v>621</v>
       </c>
       <c r="F31" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G31" s="523">
         <v>7356.8301000000001</v>
@@ -58858,7 +56917,7 @@
       <c r="AN31" s="238"/>
       <c r="AO31" s="238"/>
       <c r="AP31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AQ31" s="352">
         <f>AQ29/$AT$29</f>
@@ -58873,7 +56932,7 @@
         <v>0.2755991838064159</v>
       </c>
       <c r="AT31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
@@ -58893,7 +56952,7 @@
         <v>622</v>
       </c>
       <c r="F32" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G32" s="521">
         <v>14204.8</v>
@@ -58998,10 +57057,10 @@
         <v>0.50664933873387819</v>
       </c>
       <c r="AT32" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="522" t="s">
         <v>623</v>
       </c>
@@ -59018,7 +57077,7 @@
         <v>624</v>
       </c>
       <c r="F33" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G33" s="523">
         <v>9383.6396000000004</v>
@@ -59103,7 +57162,7 @@
       <c r="AN33" s="238"/>
       <c r="AO33" s="238"/>
     </row>
-    <row r="34" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="524" t="s">
         <v>626</v>
       </c>
@@ -59120,7 +57179,7 @@
         <v>627</v>
       </c>
       <c r="F34" s="526" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G34" s="523">
         <v>1165.4301</v>
@@ -59235,7 +57294,7 @@
         <v>628</v>
       </c>
       <c r="F35" s="520" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G35" s="521">
         <v>21751.5</v>
@@ -59322,7 +57381,7 @@
       <c r="AN35" s="238"/>
       <c r="AO35" s="238"/>
       <c r="AP35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AQ35" s="308">
         <f>(AQ29+AR29+AS29)/AP27</f>
@@ -59346,7 +57405,7 @@
         <v>629</v>
       </c>
       <c r="F36" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G36" s="521">
         <v>15022.6</v>
@@ -59452,7 +57511,7 @@
         <v>704</v>
       </c>
       <c r="F37" s="520" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G37" s="521">
         <v>54313.800999999999</v>
@@ -59546,7 +57605,7 @@
       <c r="AN37" s="238"/>
       <c r="AO37" s="238"/>
     </row>
-    <row r="38" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="524" t="s">
         <v>626</v>
       </c>
@@ -59563,7 +57622,7 @@
         <v>632</v>
       </c>
       <c r="F38" s="526" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G38" s="523">
         <v>24869.1</v>
@@ -59658,7 +57717,7 @@
         <v>633</v>
       </c>
       <c r="F39" s="529" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G39" s="530">
         <v>15697.6</v>
@@ -59717,7 +57776,7 @@
         <v>637</v>
       </c>
       <c r="F40" s="520" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G40" s="521">
         <v>6040.2201999999997</v>
@@ -59849,7 +57908,7 @@
       </c>
       <c r="AH42" s="231"/>
     </row>
-    <row r="43" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="448"/>
       <c r="B43" s="448"/>
       <c r="C43" s="448"/>
@@ -59887,9 +57946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:43" s="373" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" s="373" customFormat="1" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="468" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B44" s="463"/>
       <c r="C44" s="463"/>
@@ -59920,12 +57979,12 @@
         <v>109903.101</v>
       </c>
       <c r="AA44" s="373" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="468" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B45" s="463"/>
       <c r="C45" s="463"/>
@@ -59949,7 +58008,7 @@
       <c r="W45" s="231"/>
       <c r="X45" s="231"/>
     </row>
-    <row r="46" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="456" t="s">
         <v>742</v>
       </c>
@@ -59975,7 +58034,7 @@
       <c r="W46" s="259"/>
       <c r="X46" s="259"/>
     </row>
-    <row r="47" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q47" s="231"/>
       <c r="R47" s="231"/>
       <c r="S47" s="259"/>
@@ -60005,7 +58064,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49" s="453" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B49" s="483">
         <v>-33.234000000000002</v>
@@ -60024,7 +58083,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50" s="453" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B50" s="483">
         <v>-32.963999999999999</v>
@@ -60043,7 +58102,7 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51" s="453" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B51" s="483">
         <v>-32.679000000000002</v>
@@ -60062,7 +58121,7 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52" s="453" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B52" s="483">
         <v>-32.697000000000003</v>
@@ -60081,7 +58140,7 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53" s="453" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B53" s="483">
         <v>-32.427</v>
@@ -60100,7 +58159,7 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54" s="453" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B54" s="483">
         <v>-32.283999999999999</v>
@@ -60119,7 +58178,7 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55" s="453" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B55" s="483">
         <v>-32.448</v>
@@ -60138,7 +58197,7 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56" s="453" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B56" s="483">
         <v>-32.317999999999998</v>
@@ -60157,7 +58216,7 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57" s="453" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B57" s="483">
         <v>-32.152999999999999</v>
@@ -60176,7 +58235,7 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58" s="453" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B58" s="483">
         <v>-31.581</v>
@@ -60195,7 +58254,7 @@
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59" s="453" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B59" s="483">
         <v>-31.687999999999999</v>
@@ -60214,7 +58273,7 @@
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60" s="453" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B60" s="483">
         <v>-31.645</v>
@@ -60251,9 +58310,9 @@
       <c r="L61" s="459"/>
       <c r="M61" s="485"/>
     </row>
-    <row r="62" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="450" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B62" s="510">
         <f>STDEVA(B49:B60)</f>
@@ -60271,7 +58330,7 @@
       <c r="L62" s="470"/>
       <c r="M62" s="509"/>
     </row>
-    <row r="63" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="453"/>
       <c r="B63" s="483"/>
       <c r="C63" s="459"/>
@@ -60286,9 +58345,9 @@
       <c r="L63" s="459"/>
       <c r="M63" s="485"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="446" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B64" s="511">
         <v>-32.375</v>
@@ -60308,9 +58367,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="453" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B65" s="483">
         <v>-32.651000000000003</v>
@@ -60330,9 +58389,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="453" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B66" s="483">
         <v>-31.660999999999998</v>
@@ -60352,9 +58411,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="453" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B67" s="483">
         <v>-31.782999999999998</v>
@@ -60374,9 +58433,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="453" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B68" s="483">
         <v>-31.959</v>
@@ -60396,7 +58455,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="507" t="s">
         <v>694</v>
       </c>
@@ -60419,9 +58478,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="450" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B70" s="510">
         <f>STDEVA(B64:B68)</f>
@@ -60442,7 +58501,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="453"/>
       <c r="B71" s="459"/>
       <c r="C71" s="459"/>
@@ -60460,9 +58519,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" s="460" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B72" s="512">
         <f>AVERAGE(B49:B60,B64:B68)</f>
@@ -60483,9 +58542,9 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="450" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B73" s="508">
         <f>STDEVA(B49:B60,B64:B68)</f>
@@ -60506,27 +58565,27 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY74">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY75">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AY76">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AG77">
         <v>-25.65</v>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>643</v>
       </c>
@@ -60537,7 +58596,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="266" t="s">
         <v>647</v>
       </c>
@@ -60555,7 +58614,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="266" t="s">
         <v>647</v>
       </c>
@@ -60573,7 +58632,7 @@
         <v>-25.65</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="266" t="s">
         <v>647</v>
       </c>
@@ -60588,7 +58647,7 @@
         <v>-32.679000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="266" t="s">
         <v>647</v>
       </c>
@@ -60603,7 +58662,7 @@
         <v>-32.697000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="266" t="s">
         <v>647</v>
       </c>
@@ -60627,7 +58686,7 @@
       <c r="I83"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="266" t="s">
         <v>647</v>
       </c>
@@ -60658,7 +58717,7 @@
       </c>
       <c r="K84" s="274"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="266" t="s">
         <v>658</v>
       </c>
@@ -60693,7 +58752,7 @@
         <v>0.40907880251446349</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="266" t="s">
         <v>658</v>
       </c>
@@ -60710,7 +58769,7 @@
       <c r="I86"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="266" t="s">
         <v>658</v>
       </c>
@@ -60737,7 +58796,7 @@
       </c>
       <c r="K87" s="274"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="266" t="s">
         <v>658</v>
       </c>
@@ -60772,7 +58831,7 @@
         <v>0.47548781968276282</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="266" t="s">
         <v>658</v>
       </c>
@@ -60800,7 +58859,7 @@
       <c r="I89"/>
       <c r="K89" s="49"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="275" t="s">
         <v>658</v>
       </c>
@@ -60818,7 +58877,7 @@
       <c r="K90" s="49"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="276" t="s">
         <v>671</v>
       </c>
@@ -60834,12 +58893,12 @@
       <c r="I91"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D92" s="267"/>
       <c r="I92"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="278" t="s">
         <v>675</v>
       </c>
@@ -60856,7 +58915,7 @@
       <c r="I93"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="278" t="s">
         <v>683</v>
       </c>
@@ -60883,7 +58942,7 @@
       </c>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="266" t="s">
         <v>687</v>
       </c>
@@ -60915,7 +58974,7 @@
       </c>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="266" t="s">
         <v>687</v>
       </c>
@@ -60943,7 +59002,7 @@
       <c r="I96"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="275" t="s">
         <v>687</v>
       </c>
@@ -60958,7 +59017,7 @@
         <v>-31.959</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="276" t="s">
         <v>694</v>
       </c>
@@ -60971,12 +59030,12 @@
         <v>0.4157249090444326</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="221" t="s">
         <v>575</v>
       </c>
@@ -60999,7 +59058,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>601</v>
       </c>
@@ -61033,7 +59092,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>601</v>
       </c>
@@ -61067,7 +59126,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="293" t="s">
         <v>625</v>
       </c>
@@ -61098,7 +59157,7 @@
         <v>1.1755102040816328E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>A15</f>
         <v>Soil Density (ρ)  =</v>
@@ -61108,21 +59167,21 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="120" spans="17:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q120" s="30" t="s">
         <v>750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="AH18:AI18"/>
     <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
